--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7935038972310615</v>
+        <v>0.7935038972310559</v>
       </c>
       <c r="D2">
-        <v>0.80516328758747</v>
+        <v>0.8051632875874645</v>
       </c>
       <c r="E2">
-        <v>0.8224524380768005</v>
+        <v>0.8224524380767957</v>
       </c>
       <c r="F2">
-        <v>0.7602058498829496</v>
+        <v>0.7602058498829439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.007634478410324</v>
+        <v>1.007634478410323</v>
       </c>
       <c r="J2">
-        <v>0.8242804316863899</v>
+        <v>0.8242804316863847</v>
       </c>
       <c r="K2">
-        <v>0.820223003759887</v>
+        <v>0.8202230037598816</v>
       </c>
       <c r="L2">
-        <v>0.8371003395939617</v>
+        <v>0.8371003395939571</v>
       </c>
       <c r="M2">
-        <v>0.7764568026527064</v>
+        <v>0.7764568026527009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8502016160568023</v>
+        <v>0.850201616056803</v>
       </c>
       <c r="D3">
-        <v>0.8598191050836729</v>
+        <v>0.8598191050836738</v>
       </c>
       <c r="E3">
-        <v>0.8729680999169773</v>
+        <v>0.8729680999169779</v>
       </c>
       <c r="F3">
-        <v>0.8323492623288949</v>
+        <v>0.8323492623288954</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.01992453907814</v>
       </c>
       <c r="J3">
-        <v>0.8758162457626473</v>
+        <v>0.875816245762648</v>
       </c>
       <c r="K3">
-        <v>0.8726272005050687</v>
+        <v>0.8726272005050693</v>
       </c>
       <c r="L3">
-        <v>0.8855335635702546</v>
+        <v>0.8855335635702554</v>
       </c>
       <c r="M3">
-        <v>0.8456968849252114</v>
+        <v>0.8456968849252119</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8748974590277659</v>
+        <v>0.8748974590277663</v>
       </c>
       <c r="D4">
-        <v>0.8836282050702873</v>
+        <v>0.8836282050702876</v>
       </c>
       <c r="E4">
-        <v>0.8949416891653945</v>
+        <v>0.8949416891653951</v>
       </c>
       <c r="F4">
-        <v>0.8628916454486566</v>
+        <v>0.8628916454486567</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.025191146194695</v>
       </c>
       <c r="J4">
-        <v>0.8981504324328096</v>
+        <v>0.89815043243281</v>
       </c>
       <c r="K4">
-        <v>0.8953686956908877</v>
+        <v>0.8953686956908882</v>
       </c>
       <c r="L4">
-        <v>0.9064985337999969</v>
+        <v>0.9064985337999972</v>
       </c>
       <c r="M4">
-        <v>0.8749849408130376</v>
+        <v>0.8749849408130378</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8839471770097647</v>
+        <v>0.8839471770097643</v>
       </c>
       <c r="D5">
-        <v>0.8923536517393272</v>
+        <v>0.8923536517393269</v>
       </c>
       <c r="E5">
-        <v>0.9029893440636746</v>
+        <v>0.9029893440636739</v>
       </c>
       <c r="F5">
-        <v>0.8739572453592815</v>
+        <v>0.8739572453592807</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.027099600089963</v>
       </c>
       <c r="J5">
-        <v>0.9063169871432132</v>
+        <v>0.9063169871432128</v>
       </c>
       <c r="K5">
-        <v>0.9036890958916111</v>
+        <v>0.9036890958916107</v>
       </c>
       <c r="L5">
-        <v>0.9141606157226554</v>
+        <v>0.9141606157226547</v>
       </c>
       <c r="M5">
-        <v>0.8855887940335567</v>
+        <v>0.8855887940335558</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8854061857645749</v>
+        <v>0.8854061857645786</v>
       </c>
       <c r="D6">
-        <v>0.8937604155095277</v>
+        <v>0.8937604155095314</v>
       </c>
       <c r="E6">
-        <v>0.9042865606548135</v>
+        <v>0.9042865606548167</v>
       </c>
       <c r="F6">
-        <v>0.8757349283134889</v>
+        <v>0.8757349283134919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027405995684031</v>
+        <v>1.027405995684032</v>
       </c>
       <c r="J6">
-        <v>0.9076326917015171</v>
+        <v>0.9076326917015207</v>
       </c>
       <c r="K6">
-        <v>0.9050298408110669</v>
+        <v>0.9050298408110706</v>
       </c>
       <c r="L6">
-        <v>0.9153948473877029</v>
+        <v>0.915394847387706</v>
       </c>
       <c r="M6">
-        <v>0.8872918580363449</v>
+        <v>0.8872918580363478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8750227429760608</v>
+        <v>0.8750227429760626</v>
       </c>
       <c r="D7">
-        <v>0.8837489972942457</v>
+        <v>0.8837489972942475</v>
       </c>
       <c r="E7">
-        <v>0.8950531176259373</v>
+        <v>0.8950531176259388</v>
       </c>
       <c r="F7">
-        <v>0.8630452986072469</v>
+        <v>0.863045298607249</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.025217655859882</v>
       </c>
       <c r="J7">
-        <v>0.8982635562174763</v>
+        <v>0.898263556217478</v>
       </c>
       <c r="K7">
-        <v>0.895483932179411</v>
+        <v>0.8954839321794126</v>
       </c>
       <c r="L7">
-        <v>0.9066046838584768</v>
+        <v>0.9066046838584786</v>
       </c>
       <c r="M7">
-        <v>0.8751322128502523</v>
+        <v>0.8751322128502544</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D8">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E8">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F8">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J8">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K8">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L8">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M8">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D9">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E9">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F9">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J9">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K9">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L9">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M9">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D10">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E10">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F10">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J10">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K10">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L10">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M10">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D11">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E11">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F11">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J11">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K11">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L11">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M11">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D12">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E12">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F12">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J12">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K12">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L12">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M12">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D13">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E13">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F13">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J13">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K13">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L13">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M13">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D14">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E14">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F14">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J14">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K14">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L14">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M14">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D15">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E15">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F15">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J15">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K15">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L15">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M15">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D16">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E16">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F16">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J16">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K16">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L16">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M16">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D17">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E17">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F17">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J17">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K17">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L17">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M17">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D18">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E18">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F18">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J18">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K18">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L18">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M18">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D19">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E19">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F19">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J19">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K19">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L19">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M19">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D20">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E20">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F20">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J20">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K20">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L20">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M20">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D21">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E21">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F21">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J21">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K21">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L21">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M21">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D22">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E22">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F22">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J22">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K22">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L22">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M22">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D23">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E23">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F23">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J23">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K23">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L23">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M23">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D24">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E24">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F24">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J24">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K24">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L24">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M24">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8170999930295607</v>
+        <v>0.8170999930295636</v>
       </c>
       <c r="D25">
-        <v>0.827909324383181</v>
+        <v>0.8279093243831837</v>
       </c>
       <c r="E25">
-        <v>0.8434879333805316</v>
+        <v>0.8434879333805338</v>
       </c>
       <c r="F25">
-        <v>0.7905918353403416</v>
+        <v>0.7905918353403443</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J25">
-        <v>0.8457725350747993</v>
+        <v>0.8457725350748019</v>
       </c>
       <c r="K25">
-        <v>0.8420652932332829</v>
+        <v>0.8420652932332855</v>
       </c>
       <c r="L25">
-        <v>0.8573083497102292</v>
+        <v>0.8573083497102315</v>
       </c>
       <c r="M25">
-        <v>0.8056242413076388</v>
+        <v>0.8056242413076413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7935038972310559</v>
+        <v>0.7935038972310615</v>
       </c>
       <c r="D2">
-        <v>0.8051632875874645</v>
+        <v>0.80516328758747</v>
       </c>
       <c r="E2">
-        <v>0.8224524380767957</v>
+        <v>0.8224524380768005</v>
       </c>
       <c r="F2">
-        <v>0.7602058498829439</v>
+        <v>0.7602058498829496</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.007634478410323</v>
+        <v>1.007634478410324</v>
       </c>
       <c r="J2">
-        <v>0.8242804316863847</v>
+        <v>0.8242804316863899</v>
       </c>
       <c r="K2">
-        <v>0.8202230037598816</v>
+        <v>0.820223003759887</v>
       </c>
       <c r="L2">
-        <v>0.8371003395939571</v>
+        <v>0.8371003395939617</v>
       </c>
       <c r="M2">
-        <v>0.7764568026527009</v>
+        <v>0.7764568026527064</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.850201616056803</v>
+        <v>0.8502016160568023</v>
       </c>
       <c r="D3">
-        <v>0.8598191050836738</v>
+        <v>0.8598191050836729</v>
       </c>
       <c r="E3">
-        <v>0.8729680999169779</v>
+        <v>0.8729680999169773</v>
       </c>
       <c r="F3">
-        <v>0.8323492623288954</v>
+        <v>0.8323492623288949</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.01992453907814</v>
       </c>
       <c r="J3">
-        <v>0.875816245762648</v>
+        <v>0.8758162457626473</v>
       </c>
       <c r="K3">
-        <v>0.8726272005050693</v>
+        <v>0.8726272005050687</v>
       </c>
       <c r="L3">
-        <v>0.8855335635702554</v>
+        <v>0.8855335635702546</v>
       </c>
       <c r="M3">
-        <v>0.8456968849252119</v>
+        <v>0.8456968849252114</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8748974590277663</v>
+        <v>0.8748974590277659</v>
       </c>
       <c r="D4">
-        <v>0.8836282050702876</v>
+        <v>0.8836282050702873</v>
       </c>
       <c r="E4">
-        <v>0.8949416891653951</v>
+        <v>0.8949416891653945</v>
       </c>
       <c r="F4">
-        <v>0.8628916454486567</v>
+        <v>0.8628916454486566</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.025191146194695</v>
       </c>
       <c r="J4">
-        <v>0.89815043243281</v>
+        <v>0.8981504324328096</v>
       </c>
       <c r="K4">
-        <v>0.8953686956908882</v>
+        <v>0.8953686956908877</v>
       </c>
       <c r="L4">
-        <v>0.9064985337999972</v>
+        <v>0.9064985337999969</v>
       </c>
       <c r="M4">
-        <v>0.8749849408130378</v>
+        <v>0.8749849408130376</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8839471770097643</v>
+        <v>0.8839471770097647</v>
       </c>
       <c r="D5">
-        <v>0.8923536517393269</v>
+        <v>0.8923536517393272</v>
       </c>
       <c r="E5">
-        <v>0.9029893440636739</v>
+        <v>0.9029893440636746</v>
       </c>
       <c r="F5">
-        <v>0.8739572453592807</v>
+        <v>0.8739572453592815</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.027099600089963</v>
       </c>
       <c r="J5">
-        <v>0.9063169871432128</v>
+        <v>0.9063169871432132</v>
       </c>
       <c r="K5">
-        <v>0.9036890958916107</v>
+        <v>0.9036890958916111</v>
       </c>
       <c r="L5">
-        <v>0.9141606157226547</v>
+        <v>0.9141606157226554</v>
       </c>
       <c r="M5">
-        <v>0.8855887940335558</v>
+        <v>0.8855887940335567</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8854061857645786</v>
+        <v>0.8854061857645749</v>
       </c>
       <c r="D6">
-        <v>0.8937604155095314</v>
+        <v>0.8937604155095277</v>
       </c>
       <c r="E6">
-        <v>0.9042865606548167</v>
+        <v>0.9042865606548135</v>
       </c>
       <c r="F6">
-        <v>0.8757349283134919</v>
+        <v>0.8757349283134889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027405995684032</v>
+        <v>1.027405995684031</v>
       </c>
       <c r="J6">
-        <v>0.9076326917015207</v>
+        <v>0.9076326917015171</v>
       </c>
       <c r="K6">
-        <v>0.9050298408110706</v>
+        <v>0.9050298408110669</v>
       </c>
       <c r="L6">
-        <v>0.915394847387706</v>
+        <v>0.9153948473877029</v>
       </c>
       <c r="M6">
-        <v>0.8872918580363478</v>
+        <v>0.8872918580363449</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8750227429760626</v>
+        <v>0.8750227429760608</v>
       </c>
       <c r="D7">
-        <v>0.8837489972942475</v>
+        <v>0.8837489972942457</v>
       </c>
       <c r="E7">
-        <v>0.8950531176259388</v>
+        <v>0.8950531176259373</v>
       </c>
       <c r="F7">
-        <v>0.863045298607249</v>
+        <v>0.8630452986072469</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.025217655859882</v>
       </c>
       <c r="J7">
-        <v>0.898263556217478</v>
+        <v>0.8982635562174763</v>
       </c>
       <c r="K7">
-        <v>0.8954839321794126</v>
+        <v>0.895483932179411</v>
       </c>
       <c r="L7">
-        <v>0.9066046838584786</v>
+        <v>0.9066046838584768</v>
       </c>
       <c r="M7">
-        <v>0.8751322128502544</v>
+        <v>0.8751322128502523</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D8">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E8">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F8">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J8">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K8">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L8">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M8">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D9">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E9">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F9">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J9">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K9">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L9">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M9">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D10">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E10">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F10">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J10">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K10">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L10">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M10">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D11">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E11">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F11">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J11">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K11">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L11">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M11">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D12">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E12">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F12">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J12">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K12">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L12">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M12">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D13">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E13">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F13">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J13">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K13">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L13">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M13">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D14">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E14">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F14">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J14">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K14">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L14">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M14">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D15">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E15">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F15">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J15">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K15">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L15">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M15">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D16">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E16">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F16">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J16">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K16">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L16">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M16">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D17">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E17">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F17">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J17">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K17">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L17">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M17">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D18">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E18">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F18">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J18">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K18">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L18">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M18">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D19">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E19">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F19">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J19">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K19">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L19">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M19">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D20">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E20">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F20">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J20">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K20">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L20">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M20">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D21">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E21">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F21">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J21">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K21">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L21">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M21">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D22">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E22">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F22">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J22">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K22">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L22">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M22">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D23">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E23">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F23">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J23">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K23">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L23">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M23">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D24">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E24">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F24">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J24">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K24">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L24">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M24">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8170999930295636</v>
+        <v>0.8170999930295607</v>
       </c>
       <c r="D25">
-        <v>0.8279093243831837</v>
+        <v>0.827909324383181</v>
       </c>
       <c r="E25">
-        <v>0.8434879333805338</v>
+        <v>0.8434879333805316</v>
       </c>
       <c r="F25">
-        <v>0.7905918353403443</v>
+        <v>0.7905918353403416</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.01277185370395</v>
       </c>
       <c r="J25">
-        <v>0.8457725350748019</v>
+        <v>0.8457725350747993</v>
       </c>
       <c r="K25">
-        <v>0.8420652932332855</v>
+        <v>0.8420652932332829</v>
       </c>
       <c r="L25">
-        <v>0.8573083497102315</v>
+        <v>0.8573083497102292</v>
       </c>
       <c r="M25">
-        <v>0.8056242413076413</v>
+        <v>0.8056242413076388</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7935038972310615</v>
+        <v>0.7940208882999595</v>
       </c>
       <c r="D2">
-        <v>0.80516328758747</v>
+        <v>0.8056679083573421</v>
       </c>
       <c r="E2">
-        <v>0.8224524380768005</v>
+        <v>0.8229048870961272</v>
       </c>
       <c r="F2">
-        <v>0.7602058498829496</v>
+        <v>0.7607395851597822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.007634478410324</v>
+        <v>1.007706078034128</v>
       </c>
       <c r="J2">
-        <v>0.8242804316863899</v>
+        <v>0.8247676125927101</v>
       </c>
       <c r="K2">
-        <v>0.820223003759887</v>
+        <v>0.820715267792447</v>
       </c>
       <c r="L2">
-        <v>0.8371003395939617</v>
+        <v>0.8375423221969472</v>
       </c>
       <c r="M2">
-        <v>0.7764568026527064</v>
+        <v>0.7769752637489454</v>
+      </c>
+      <c r="N2">
+        <v>0.8832786847408097</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8502016160568023</v>
+        <v>0.8504633418367923</v>
       </c>
       <c r="D3">
-        <v>0.8598191050836729</v>
+        <v>0.8600765324000966</v>
       </c>
       <c r="E3">
-        <v>0.8729680999169773</v>
+        <v>0.8731960522379641</v>
       </c>
       <c r="F3">
-        <v>0.8323492623288949</v>
+        <v>0.8325871151579873</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.01992453907814</v>
+        <v>1.019953342970867</v>
       </c>
       <c r="J3">
-        <v>0.8758162457626473</v>
+        <v>0.8760667581193757</v>
       </c>
       <c r="K3">
-        <v>0.8726272005050687</v>
+        <v>0.8728797846441585</v>
       </c>
       <c r="L3">
-        <v>0.8855335635702546</v>
+        <v>0.885757393387783</v>
       </c>
       <c r="M3">
-        <v>0.8456968849252114</v>
+        <v>0.8459298645931345</v>
+      </c>
+      <c r="N3">
+        <v>0.918116926085677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8748974590277659</v>
+        <v>0.8750976404096017</v>
       </c>
       <c r="D4">
-        <v>0.8836282050702873</v>
+        <v>0.8838256683271754</v>
       </c>
       <c r="E4">
-        <v>0.8949416891653945</v>
+        <v>0.895115937310093</v>
       </c>
       <c r="F4">
-        <v>0.8628916454486566</v>
+        <v>0.8630665905534119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025191146194695</v>
+        <v>1.025211559912232</v>
       </c>
       <c r="J4">
-        <v>0.8981504324328096</v>
+        <v>0.8983432127403301</v>
       </c>
       <c r="K4">
-        <v>0.8953686956908877</v>
+        <v>0.895562901761903</v>
       </c>
       <c r="L4">
-        <v>0.9064985337999969</v>
+        <v>0.9066699999958021</v>
       </c>
       <c r="M4">
-        <v>0.8749849408130376</v>
+        <v>0.8751568175839765</v>
+      </c>
+      <c r="N4">
+        <v>0.9332524767260749</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8839471770097647</v>
+        <v>0.8841281734943776</v>
       </c>
       <c r="D5">
-        <v>0.8923536517393272</v>
+        <v>0.8925323684512131</v>
       </c>
       <c r="E5">
-        <v>0.9029893440636746</v>
+        <v>0.9031468834657409</v>
       </c>
       <c r="F5">
-        <v>0.8739572453592815</v>
+        <v>0.8741134514442677</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027099600089963</v>
+        <v>1.027117599172899</v>
       </c>
       <c r="J5">
-        <v>0.9063169871432132</v>
+        <v>0.9064916662294819</v>
       </c>
       <c r="K5">
-        <v>0.9036890958916111</v>
+        <v>0.9038650125966559</v>
       </c>
       <c r="L5">
-        <v>0.9141606157226554</v>
+        <v>0.9143157603914799</v>
       </c>
       <c r="M5">
-        <v>0.8855887940335567</v>
+        <v>0.8857424183462164</v>
+      </c>
+      <c r="N5">
+        <v>0.9387892635651072</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8854061857645749</v>
+        <v>0.8855842229899253</v>
       </c>
       <c r="D6">
-        <v>0.8937604155095277</v>
+        <v>0.8939362379197719</v>
       </c>
       <c r="E6">
-        <v>0.9042865606548135</v>
+        <v>0.9044415239815233</v>
       </c>
       <c r="F6">
-        <v>0.8757349283134889</v>
+        <v>0.8758882821708014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027405995684031</v>
+        <v>1.027423631156265</v>
       </c>
       <c r="J6">
-        <v>0.9076326917015171</v>
+        <v>0.907804573460782</v>
       </c>
       <c r="K6">
-        <v>0.9050298408110669</v>
+        <v>0.9052029318413496</v>
       </c>
       <c r="L6">
-        <v>0.9153948473877029</v>
+        <v>0.9155474741494958</v>
       </c>
       <c r="M6">
-        <v>0.8872918580363449</v>
+        <v>0.8874427017653275</v>
+      </c>
+      <c r="N6">
+        <v>0.9396813745016972</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8750227429760608</v>
+        <v>0.8752226483716881</v>
       </c>
       <c r="D7">
-        <v>0.8837489972942457</v>
+        <v>0.8839461910748178</v>
       </c>
       <c r="E7">
-        <v>0.8950531176259373</v>
+        <v>0.8952271253037104</v>
       </c>
       <c r="F7">
-        <v>0.8630452986072469</v>
+        <v>0.8632199711166885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025217655859882</v>
+        <v>1.025238034142945</v>
       </c>
       <c r="J7">
-        <v>0.8982635562174763</v>
+        <v>0.8984560765267698</v>
       </c>
       <c r="K7">
-        <v>0.895483932179411</v>
+        <v>0.8956778754945267</v>
       </c>
       <c r="L7">
-        <v>0.9066046838584768</v>
+        <v>0.9067759152759955</v>
       </c>
       <c r="M7">
-        <v>0.8751322128502523</v>
+        <v>0.8753038242930881</v>
+      </c>
+      <c r="N7">
+        <v>0.9333291657971744</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D8">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E8">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F8">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J8">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K8">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L8">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M8">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N8">
+        <v>0.8977843172295119</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D9">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E9">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F9">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J9">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K9">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L9">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M9">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N9">
+        <v>0.8977843172295119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D10">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E10">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F10">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J10">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K10">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L10">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M10">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N10">
+        <v>0.8977843172295119</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D11">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E11">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F11">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J11">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K11">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L11">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M11">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N11">
+        <v>0.8977843172295119</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D12">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E12">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F12">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J12">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K12">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L12">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M12">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N12">
+        <v>0.8977843172295119</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D13">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E13">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F13">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J13">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K13">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L13">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M13">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N13">
+        <v>0.8977843172295119</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D14">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E14">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F14">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J14">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K14">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L14">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M14">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N14">
+        <v>0.8977843172295119</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D15">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E15">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F15">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J15">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K15">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L15">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M15">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N15">
+        <v>0.8977843172295119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D16">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E16">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F16">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J16">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K16">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L16">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M16">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N16">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D17">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E17">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F17">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J17">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K17">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L17">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M17">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N17">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D18">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E18">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F18">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J18">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K18">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L18">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M18">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N18">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D19">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E19">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F19">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J19">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K19">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L19">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M19">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N19">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D20">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E20">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F20">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J20">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K20">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L20">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M20">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N20">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D21">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E21">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F21">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J21">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K21">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L21">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M21">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N21">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D22">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E22">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F22">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J22">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K22">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L22">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M22">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N22">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D23">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E23">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F23">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J23">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K23">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L23">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M23">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N23">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D24">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E24">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F24">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J24">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K24">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L24">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M24">
-        <v>0.8056242413076388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N24">
+        <v>0.8977843172295119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8170999930295607</v>
+        <v>0.8174797382748822</v>
       </c>
       <c r="D25">
-        <v>0.827909324383181</v>
+        <v>0.828281234210408</v>
       </c>
       <c r="E25">
-        <v>0.8434879333805316</v>
+        <v>0.8438193477736728</v>
       </c>
       <c r="F25">
-        <v>0.7905918353403416</v>
+        <v>0.7909606819075573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.01277185370395</v>
+        <v>1.012819121804553</v>
       </c>
       <c r="J25">
-        <v>0.8457725350747993</v>
+        <v>0.8461328136977729</v>
       </c>
       <c r="K25">
-        <v>0.8420652932332829</v>
+        <v>0.8424289967379411</v>
       </c>
       <c r="L25">
-        <v>0.8573083497102292</v>
+        <v>0.8576328036546289</v>
       </c>
       <c r="M25">
-        <v>0.8056242413076388</v>
+        <v>0.8059838790862063</v>
+      </c>
+      <c r="N25">
+        <v>0.8977843172295119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -417,984 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.7940208882999595</v>
+        <v>0.927918833454464</v>
       </c>
       <c r="D2">
-        <v>0.8056679083573421</v>
+        <v>0.9431943812605887</v>
       </c>
       <c r="E2">
-        <v>0.8229048870961272</v>
+        <v>0.9450544671071729</v>
       </c>
       <c r="F2">
-        <v>0.7607395851597822</v>
+        <v>0.9491655583998551</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.007706078034128</v>
-      </c>
       <c r="J2">
-        <v>0.8247676125927101</v>
+        <v>0.9524921431739791</v>
       </c>
       <c r="K2">
-        <v>0.820715267792447</v>
+        <v>0.9555062508980952</v>
       </c>
       <c r="L2">
-        <v>0.8375423221969472</v>
+        <v>0.9573363390274038</v>
       </c>
       <c r="M2">
-        <v>0.7769752637489454</v>
+        <v>0.9613816649464423</v>
       </c>
       <c r="N2">
-        <v>0.8832786847408097</v>
+        <v>0.953844791269662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.8504633418367923</v>
+        <v>0.959060406818418</v>
       </c>
       <c r="D3">
-        <v>0.8600765324000966</v>
+        <v>0.9734131316416801</v>
       </c>
       <c r="E3">
-        <v>0.8731960522379641</v>
+        <v>0.9734305260980649</v>
       </c>
       <c r="F3">
-        <v>0.8325871151579873</v>
+        <v>0.9794507828786445</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.019953342970867</v>
-      </c>
       <c r="J3">
-        <v>0.8760667581193757</v>
+        <v>0.9807329502695199</v>
       </c>
       <c r="K3">
-        <v>0.8728797846441585</v>
+        <v>0.9843978917950946</v>
       </c>
       <c r="L3">
-        <v>0.885757393387783</v>
+        <v>0.984415048122768</v>
       </c>
       <c r="M3">
-        <v>0.8459298645931345</v>
+        <v>0.9903535268563467</v>
       </c>
       <c r="N3">
-        <v>0.918116926085677</v>
+        <v>0.9821257035505444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.8750976404096017</v>
+        <v>0.9768179543640012</v>
       </c>
       <c r="D4">
-        <v>0.8838256683271754</v>
+        <v>0.9906632926283424</v>
       </c>
       <c r="E4">
-        <v>0.895115937310093</v>
+        <v>0.9896288651177769</v>
       </c>
       <c r="F4">
-        <v>0.8630665905534119</v>
+        <v>0.9967419771727232</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.025211559912232</v>
-      </c>
       <c r="J4">
-        <v>0.8983432127403301</v>
+        <v>0.9968338414472194</v>
       </c>
       <c r="K4">
-        <v>0.895562901761903</v>
+        <v>1.000875725162776</v>
       </c>
       <c r="L4">
-        <v>0.9066699999958021</v>
+        <v>0.9998540935103601</v>
       </c>
       <c r="M4">
-        <v>0.8751568175839765</v>
+        <v>1.006879883360493</v>
       </c>
       <c r="N4">
-        <v>0.9332524767260749</v>
+        <v>0.9982494598405142</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.8841281734943776</v>
+        <v>0.9838396151787661</v>
       </c>
       <c r="D5">
-        <v>0.8925323684512131</v>
+        <v>0.9974877833106304</v>
       </c>
       <c r="E5">
-        <v>0.9031468834657409</v>
+        <v>0.9960367840328372</v>
       </c>
       <c r="F5">
-        <v>0.8741134514442677</v>
+        <v>1.003583291700178</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.027117599172899</v>
-      </c>
       <c r="J5">
-        <v>0.9064916662294819</v>
+        <v>1.003199026201795</v>
       </c>
       <c r="K5">
-        <v>0.9038650125966559</v>
+        <v>1.007391259403915</v>
       </c>
       <c r="L5">
-        <v>0.9143157603914799</v>
+        <v>1.005957470472592</v>
       </c>
       <c r="M5">
-        <v>0.8857424183462164</v>
+        <v>1.013415141255366</v>
       </c>
       <c r="N5">
-        <v>0.9387892635651072</v>
+        <v>1.004623683887538</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.8855842229899253</v>
+        <v>0.9849953743560096</v>
       </c>
       <c r="D6">
-        <v>0.8939362379197719</v>
+        <v>0.9986112688641765</v>
       </c>
       <c r="E6">
-        <v>0.9044415239815233</v>
+        <v>0.9970916544074117</v>
       </c>
       <c r="F6">
-        <v>0.8758882821708014</v>
+        <v>1.004709578330684</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.027423631156265</v>
-      </c>
       <c r="J6">
-        <v>0.907804573460782</v>
+        <v>1.004246630170277</v>
       </c>
       <c r="K6">
-        <v>0.9052029318413496</v>
+        <v>1.008463685110705</v>
       </c>
       <c r="L6">
-        <v>0.9155474741494958</v>
+        <v>1.006961968574797</v>
       </c>
       <c r="M6">
-        <v>0.8874427017653275</v>
+        <v>1.014490842181152</v>
       </c>
       <c r="N6">
-        <v>0.9396813745016972</v>
+        <v>1.005672775573817</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.8752226483716881</v>
+        <v>0.9769133891093101</v>
       </c>
       <c r="D7">
-        <v>0.8839461910748178</v>
+        <v>0.9907560347609231</v>
       </c>
       <c r="E7">
-        <v>0.8952271253037104</v>
+        <v>0.9897159485060018</v>
       </c>
       <c r="F7">
-        <v>0.8632199711166885</v>
+        <v>0.9968349457231119</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.025238034142945</v>
-      </c>
       <c r="J7">
-        <v>0.8984560765267698</v>
+        <v>0.9969203601708778</v>
       </c>
       <c r="K7">
-        <v>0.8956778754945267</v>
+        <v>1.000964282243338</v>
       </c>
       <c r="L7">
-        <v>0.9067759152759955</v>
+        <v>0.9999370546003444</v>
       </c>
       <c r="M7">
-        <v>0.8753038242930881</v>
+        <v>1.006968706496972</v>
       </c>
       <c r="N7">
-        <v>0.9333291657971744</v>
+        <v>0.9983361014306841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.8174797382748822</v>
+        <v>0.9390375136901637</v>
       </c>
       <c r="D8">
-        <v>0.828281234210408</v>
+        <v>0.9539784731903731</v>
       </c>
       <c r="E8">
-        <v>0.8438193477736728</v>
+        <v>0.9551805585997628</v>
       </c>
       <c r="F8">
-        <v>0.7909606819075573</v>
+        <v>0.9599725549801367</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J8">
-        <v>0.8461328136977729</v>
+        <v>0.9625750674856183</v>
       </c>
       <c r="K8">
-        <v>0.8424289967379411</v>
+        <v>0.9658201583220548</v>
       </c>
       <c r="L8">
-        <v>0.8576328036546289</v>
+        <v>0.9670039262084851</v>
       </c>
       <c r="M8">
-        <v>0.8059838790862063</v>
+        <v>0.9717234819743189</v>
       </c>
       <c r="N8">
-        <v>0.8977843172295119</v>
+        <v>0.9639420344903512</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D9">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E9">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F9">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J9">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K9">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L9">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M9">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N9">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D10">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E10">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F10">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J10">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K10">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L10">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M10">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N10">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D11">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E11">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F11">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J11">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K11">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L11">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M11">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N11">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D12">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E12">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F12">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J12">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K12">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L12">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M12">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N12">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D13">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E13">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F13">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J13">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K13">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L13">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M13">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N13">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D14">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E14">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F14">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J14">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K14">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L14">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M14">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N14">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D15">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E15">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F15">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J15">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K15">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L15">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M15">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N15">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D16">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E16">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F16">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J16">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K16">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L16">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M16">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N16">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D17">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E17">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F17">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J17">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K17">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L17">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M17">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N17">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D18">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E18">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F18">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J18">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K18">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L18">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M18">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N18">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D19">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E19">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F19">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J19">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K19">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L19">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M19">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N19">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D20">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E20">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F20">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J20">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K20">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L20">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M20">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N20">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D21">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E21">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F21">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J21">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K21">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L21">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M21">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N21">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D22">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E22">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F22">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J22">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K22">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L22">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M22">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N22">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D23">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E23">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F23">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J23">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K23">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L23">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M23">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N23">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D24">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E24">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F24">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J24">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K24">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L24">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M24">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N24">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.8174797382748822</v>
+        <v>0.8409637258347378</v>
       </c>
       <c r="D25">
-        <v>0.828281234210408</v>
+        <v>0.8590900640841717</v>
       </c>
       <c r="E25">
-        <v>0.8438193477736728</v>
+        <v>0.8661408671244809</v>
       </c>
       <c r="F25">
-        <v>0.7909606819075573</v>
+        <v>0.8649180596804681</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.012819121804553</v>
-      </c>
       <c r="J25">
-        <v>0.8461328136977729</v>
+        <v>0.8737233217036477</v>
       </c>
       <c r="K25">
-        <v>0.8424289967379411</v>
+        <v>0.8749743672695923</v>
       </c>
       <c r="L25">
-        <v>0.8576328036546289</v>
+        <v>0.8818565340436809</v>
       </c>
       <c r="M25">
-        <v>0.8059838790862063</v>
+        <v>0.8806627085957787</v>
       </c>
       <c r="N25">
-        <v>0.8977843172295119</v>
+        <v>0.8749641090379325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.927918833454464</v>
+        <v>0.9976806289944454</v>
       </c>
       <c r="D2">
-        <v>0.9431943812605887</v>
+        <v>1.006081163327266</v>
       </c>
       <c r="E2">
-        <v>0.9450544671071729</v>
+        <v>1.010388612336276</v>
       </c>
       <c r="F2">
-        <v>0.9491655583998551</v>
+        <v>1.012725224345675</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.042116361147863</v>
+      </c>
       <c r="J2">
-        <v>0.9524921431739791</v>
+        <v>1.019930934047754</v>
       </c>
       <c r="K2">
-        <v>0.9555062508980952</v>
+        <v>1.017456423052636</v>
       </c>
       <c r="L2">
-        <v>0.9573363390274038</v>
+        <v>1.021705089954351</v>
       </c>
       <c r="M2">
-        <v>0.9613816649464423</v>
+        <v>1.02401007817188</v>
       </c>
       <c r="N2">
-        <v>0.953844791269662</v>
+        <v>1.009891618646278</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.959060406818418</v>
+        <v>1.004174490633823</v>
       </c>
       <c r="D3">
-        <v>0.9734131316416801</v>
+        <v>1.011913060688768</v>
       </c>
       <c r="E3">
-        <v>0.9734305260980649</v>
+        <v>1.01607938004703</v>
       </c>
       <c r="F3">
-        <v>0.9794507828786445</v>
+        <v>1.019161105658432</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.043565993572704</v>
+      </c>
       <c r="J3">
-        <v>0.9807329502695199</v>
+        <v>1.024551998130165</v>
       </c>
       <c r="K3">
-        <v>0.9843978917950946</v>
+        <v>1.022395747517807</v>
       </c>
       <c r="L3">
-        <v>0.984415048122768</v>
+        <v>1.026510574388072</v>
       </c>
       <c r="M3">
-        <v>0.9903535268563467</v>
+        <v>1.029554549005631</v>
       </c>
       <c r="N3">
-        <v>0.9821257035505444</v>
+        <v>1.011495946491515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9768179543640012</v>
+        <v>1.008262295692723</v>
       </c>
       <c r="D4">
-        <v>0.9906632926283424</v>
+        <v>1.015589406581754</v>
       </c>
       <c r="E4">
-        <v>0.9896288651177769</v>
+        <v>1.019668228280749</v>
       </c>
       <c r="F4">
-        <v>0.9967419771727232</v>
+        <v>1.02322128373666</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.044465083769191</v>
+      </c>
       <c r="J4">
-        <v>0.9968338414472194</v>
+        <v>1.027456986709925</v>
       </c>
       <c r="K4">
-        <v>1.000875725162776</v>
+        <v>1.025503252857232</v>
       </c>
       <c r="L4">
-        <v>0.9998540935103601</v>
+        <v>1.029534931854518</v>
       </c>
       <c r="M4">
-        <v>1.006879883360493</v>
+        <v>1.03304729927554</v>
       </c>
       <c r="N4">
-        <v>0.9982494598405142</v>
+        <v>1.012503593494426</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9838396151787661</v>
+        <v>1.009954838512152</v>
       </c>
       <c r="D5">
-        <v>0.9974877833106304</v>
+        <v>1.017112779616829</v>
       </c>
       <c r="E5">
-        <v>0.9960367840328372</v>
+        <v>1.021155692562526</v>
       </c>
       <c r="F5">
-        <v>1.003583291700178</v>
+        <v>1.024904469183939</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.044834066754397</v>
+      </c>
       <c r="J5">
-        <v>1.003199026201795</v>
+        <v>1.02865879206329</v>
       </c>
       <c r="K5">
-        <v>1.007391259403915</v>
+        <v>1.026789429441393</v>
       </c>
       <c r="L5">
-        <v>1.005957470472592</v>
+        <v>1.030786947801585</v>
       </c>
       <c r="M5">
-        <v>1.013415141255366</v>
+        <v>1.034494025971175</v>
       </c>
       <c r="N5">
-        <v>1.004623683887538</v>
+        <v>1.012920232159836</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9849953743560096</v>
+        <v>1.010237538643135</v>
       </c>
       <c r="D6">
-        <v>0.9986112688641765</v>
+        <v>1.017367292267317</v>
       </c>
       <c r="E6">
-        <v>0.9970916544074117</v>
+        <v>1.021404226199387</v>
       </c>
       <c r="F6">
-        <v>1.004709578330684</v>
+        <v>1.025185727486635</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.044895502121163</v>
+      </c>
       <c r="J6">
-        <v>1.004246630170277</v>
+        <v>1.028859465674517</v>
       </c>
       <c r="K6">
-        <v>1.008463685110705</v>
+        <v>1.027004225823427</v>
       </c>
       <c r="L6">
-        <v>1.006961968574797</v>
+        <v>1.030996054165647</v>
       </c>
       <c r="M6">
-        <v>1.014490842181152</v>
+        <v>1.034735699906749</v>
       </c>
       <c r="N6">
-        <v>1.005672775573817</v>
+        <v>1.012989787307677</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9769133891093101</v>
+        <v>1.008285011855044</v>
       </c>
       <c r="D7">
-        <v>0.9907560347609231</v>
+        <v>1.015609847621033</v>
       </c>
       <c r="E7">
-        <v>0.9897159485060018</v>
+        <v>1.019688186116777</v>
       </c>
       <c r="F7">
-        <v>0.9968349457231119</v>
+        <v>1.023243866135841</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.044470049070414</v>
+      </c>
       <c r="J7">
-        <v>0.9969203601708778</v>
+        <v>1.027473120540076</v>
       </c>
       <c r="K7">
-        <v>1.000964282243338</v>
+        <v>1.025520517007264</v>
       </c>
       <c r="L7">
-        <v>0.9999370546003444</v>
+        <v>1.029551736466933</v>
       </c>
       <c r="M7">
-        <v>1.006968706496972</v>
+        <v>1.033066714095655</v>
       </c>
       <c r="N7">
-        <v>0.9983361014306841</v>
+        <v>1.012509187650704</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9390375136901637</v>
+        <v>0.9998997479983395</v>
       </c>
       <c r="D8">
-        <v>0.9539784731903731</v>
+        <v>1.008072928001561</v>
       </c>
       <c r="E8">
-        <v>0.9551805585997628</v>
+        <v>1.012331865038113</v>
       </c>
       <c r="F8">
-        <v>0.9599725549801367</v>
+        <v>1.014922630925296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.0426145316729</v>
+      </c>
       <c r="J8">
-        <v>0.9625750674856183</v>
+        <v>1.021510858752715</v>
       </c>
       <c r="K8">
-        <v>0.9658201583220548</v>
+        <v>1.019144645571355</v>
       </c>
       <c r="L8">
-        <v>0.9670039262084851</v>
+        <v>1.023347344700611</v>
       </c>
       <c r="M8">
-        <v>0.9717234819743189</v>
+        <v>1.025904189578589</v>
       </c>
       <c r="N8">
-        <v>0.9639420344903512</v>
+        <v>1.010440313604676</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8409637258347378</v>
+        <v>0.9841826961001854</v>
       </c>
       <c r="D9">
-        <v>0.8590900640841717</v>
+        <v>0.9939915609375609</v>
       </c>
       <c r="E9">
-        <v>0.8661408671244809</v>
+        <v>0.9985999866954987</v>
       </c>
       <c r="F9">
-        <v>0.8649180596804681</v>
+        <v>0.999399707726888</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.039030939427012</v>
+      </c>
       <c r="J9">
-        <v>0.8737233217036477</v>
+        <v>1.010306640132084</v>
       </c>
       <c r="K9">
-        <v>0.8749743672695923</v>
+        <v>1.007182878923461</v>
       </c>
       <c r="L9">
-        <v>0.8818565340436809</v>
+        <v>1.011715819050485</v>
       </c>
       <c r="M9">
-        <v>0.8806627085957787</v>
+        <v>1.012502531767959</v>
       </c>
       <c r="N9">
-        <v>0.8749641090379325</v>
+        <v>1.006545881052274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.8409637258347378</v>
+        <v>0.9729682338590612</v>
       </c>
       <c r="D10">
-        <v>0.8590900640841717</v>
+        <v>0.9839803271871542</v>
       </c>
       <c r="E10">
-        <v>0.8661408671244809</v>
+        <v>0.9888458400131557</v>
       </c>
       <c r="F10">
-        <v>0.8649180596804681</v>
+        <v>0.9883781427976573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.036406240175871</v>
+      </c>
       <c r="J10">
-        <v>0.8737233217036477</v>
+        <v>1.002296975231829</v>
       </c>
       <c r="K10">
-        <v>0.8749743672695923</v>
+        <v>0.9986449737325819</v>
       </c>
       <c r="L10">
-        <v>0.8818565340436809</v>
+        <v>1.003419449636763</v>
       </c>
       <c r="M10">
-        <v>0.8806627085957787</v>
+        <v>1.002960452543381</v>
       </c>
       <c r="N10">
-        <v>0.8749641090379325</v>
+        <v>1.00375828245033</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.8409637258347378</v>
+        <v>0.967910958527297</v>
       </c>
       <c r="D11">
-        <v>0.8590900640841717</v>
+        <v>0.9794755339410428</v>
       </c>
       <c r="E11">
-        <v>0.8661408671244809</v>
+        <v>0.9844588821529806</v>
       </c>
       <c r="F11">
-        <v>0.8649180596804681</v>
+        <v>0.9834217823157437</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.035207533838924</v>
+      </c>
       <c r="J11">
-        <v>0.8737233217036477</v>
+        <v>0.998682411900921</v>
       </c>
       <c r="K11">
-        <v>0.8749743672695923</v>
+        <v>0.9947951766553038</v>
       </c>
       <c r="L11">
-        <v>0.8818565340436809</v>
+        <v>0.9996799554750431</v>
       </c>
       <c r="M11">
-        <v>0.8806627085957787</v>
+        <v>0.9986632611250295</v>
       </c>
       <c r="N11">
-        <v>0.8749641090379325</v>
+        <v>1.002499695332281</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.8409637258347378</v>
+        <v>0.9659996329160654</v>
       </c>
       <c r="D12">
-        <v>0.8590900640841717</v>
+        <v>0.9777746172299336</v>
       </c>
       <c r="E12">
-        <v>0.8661408671244809</v>
+        <v>0.9828027915345469</v>
       </c>
       <c r="F12">
-        <v>0.8649180596804681</v>
+        <v>0.981550784914013</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.034752328707609</v>
+      </c>
       <c r="J12">
-        <v>0.8737233217036477</v>
+        <v>0.9973160621068623</v>
       </c>
       <c r="K12">
-        <v>0.8749743672695923</v>
+        <v>0.9933403777796546</v>
       </c>
       <c r="L12">
-        <v>0.8818565340436809</v>
+        <v>0.9982670495987893</v>
       </c>
       <c r="M12">
-        <v>0.8806627085957787</v>
+        <v>0.9970401889388436</v>
       </c>
       <c r="N12">
-        <v>0.8749641090379325</v>
+        <v>1.002023862636811</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.8409637258347378</v>
+        <v>0.9664111489981962</v>
       </c>
       <c r="D13">
-        <v>0.8590900640841717</v>
+        <v>0.9781407568318689</v>
       </c>
       <c r="E13">
-        <v>0.8661408671244809</v>
+        <v>0.9831592666095155</v>
       </c>
       <c r="F13">
-        <v>0.8649180596804681</v>
+        <v>0.9819535177031293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.034850432633277</v>
+      </c>
       <c r="J13">
-        <v>0.8737233217036477</v>
+        <v>0.9976102534552098</v>
       </c>
       <c r="K13">
-        <v>0.8749743672695923</v>
+        <v>0.9936535919599218</v>
       </c>
       <c r="L13">
-        <v>0.8818565340436809</v>
+        <v>0.998571234795233</v>
       </c>
       <c r="M13">
-        <v>0.8806627085957787</v>
+        <v>0.9973895964234426</v>
       </c>
       <c r="N13">
-        <v>0.8749641090379325</v>
+        <v>1.002126317931747</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.8409637258347378</v>
+        <v>0.9677536534252423</v>
       </c>
       <c r="D14">
-        <v>0.8590900640841717</v>
+        <v>0.9793355124898764</v>
       </c>
       <c r="E14">
-        <v>0.8661408671244809</v>
+        <v>0.9843225439978018</v>
       </c>
       <c r="F14">
-        <v>0.8649180596804681</v>
+        <v>0.9832677512900413</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.035170113224981</v>
+      </c>
       <c r="J14">
-        <v>0.8737233217036477</v>
+        <v>0.9985699641573951</v>
       </c>
       <c r="K14">
-        <v>0.8749743672695923</v>
+        <v>0.9946754401604873</v>
       </c>
       <c r="L14">
-        <v>0.8818565340436809</v>
+        <v>0.9995636626790717</v>
       </c>
       <c r="M14">
-        <v>0.8806627085957787</v>
+        <v>0.9985296590085946</v>
       </c>
       <c r="N14">
-        <v>0.8749641090379325</v>
+        <v>1.002460536610022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.8409637258347378</v>
+        <v>0.9685763824064182</v>
       </c>
       <c r="D15">
-        <v>0.8590900640841717</v>
+        <v>0.980067911491129</v>
       </c>
       <c r="E15">
-        <v>0.8661408671244809</v>
+        <v>0.9850356907258507</v>
       </c>
       <c r="F15">
-        <v>0.8649180596804681</v>
+        <v>0.9840734459798673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.03536574086267</v>
+      </c>
       <c r="J15">
-        <v>0.8737233217036477</v>
+        <v>0.9991580718881258</v>
       </c>
       <c r="K15">
-        <v>0.8749743672695923</v>
+        <v>0.9953016876487505</v>
       </c>
       <c r="L15">
-        <v>0.8818565340436809</v>
+        <v>1.000171907462081</v>
       </c>
       <c r="M15">
-        <v>0.8806627085957787</v>
+        <v>0.9992284587825938</v>
       </c>
       <c r="N15">
-        <v>0.8749641090379325</v>
+        <v>1.002665336062913</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.8409637258347378</v>
+        <v>0.9732994130691367</v>
       </c>
       <c r="D16">
-        <v>0.8590900640841717</v>
+        <v>0.9842755414034176</v>
       </c>
       <c r="E16">
-        <v>0.8661408671244809</v>
+        <v>0.989133377591022</v>
       </c>
       <c r="F16">
-        <v>0.8649180596804681</v>
+        <v>0.9887030100437874</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.036484433621053</v>
+      </c>
       <c r="J16">
-        <v>0.8737233217036477</v>
+        <v>1.002533633528372</v>
       </c>
       <c r="K16">
-        <v>0.8749743672695923</v>
+        <v>0.9988970987759243</v>
       </c>
       <c r="L16">
-        <v>0.8818565340436809</v>
+        <v>1.003664379867514</v>
       </c>
       <c r="M16">
-        <v>0.8806627085957787</v>
+        <v>1.003241987969034</v>
       </c>
       <c r="N16">
-        <v>0.8749641090379325</v>
+        <v>1.003840675646029</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.8409637258347378</v>
+        <v>0.9762064106580071</v>
       </c>
       <c r="D17">
-        <v>0.8590900640841717</v>
+        <v>0.9868679782614617</v>
       </c>
       <c r="E17">
-        <v>0.8661408671244809</v>
+        <v>0.9916586465096048</v>
       </c>
       <c r="F17">
-        <v>0.8649180596804681</v>
+        <v>0.9915561879472962</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.037169100289966</v>
+      </c>
       <c r="J17">
-        <v>0.8737233217036477</v>
+        <v>1.004610679287871</v>
       </c>
       <c r="K17">
-        <v>0.8749743672695923</v>
+        <v>1.001110245014026</v>
       </c>
       <c r="L17">
-        <v>0.8818565340436809</v>
+        <v>1.005814527851665</v>
       </c>
       <c r="M17">
-        <v>0.8806627085957787</v>
+        <v>1.005713905476764</v>
       </c>
       <c r="N17">
-        <v>0.8749641090379325</v>
+        <v>1.004563737602528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.8409637258347378</v>
+        <v>0.9778827759837213</v>
       </c>
       <c r="D18">
-        <v>0.8590900640841717</v>
+        <v>0.9883638684054102</v>
       </c>
       <c r="E18">
-        <v>0.8661408671244809</v>
+        <v>0.9931159815929684</v>
       </c>
       <c r="F18">
-        <v>0.8649180596804681</v>
+        <v>0.9932028217601909</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.037562498452023</v>
+      </c>
       <c r="J18">
-        <v>0.8737233217036477</v>
+        <v>1.005808195241039</v>
       </c>
       <c r="K18">
-        <v>0.8749743672695923</v>
+        <v>1.00238652571604</v>
       </c>
       <c r="L18">
-        <v>0.8818565340436809</v>
+        <v>1.007054609669956</v>
       </c>
       <c r="M18">
-        <v>0.8806627085957787</v>
+        <v>1.00713992398192</v>
       </c>
       <c r="N18">
-        <v>0.8749641090379325</v>
+        <v>1.004980558191964</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8409637258347378</v>
+        <v>0.9784511838813942</v>
       </c>
       <c r="D19">
-        <v>0.8590900640841717</v>
+        <v>0.9888712351040179</v>
       </c>
       <c r="E19">
-        <v>0.8661408671244809</v>
+        <v>0.9936103054424114</v>
       </c>
       <c r="F19">
-        <v>0.8649180596804681</v>
+        <v>0.9937613671140447</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.03769564414541</v>
+      </c>
       <c r="J19">
-        <v>0.8737233217036477</v>
+        <v>1.006214194509589</v>
       </c>
       <c r="K19">
-        <v>0.8749743672695923</v>
+        <v>1.002819279248202</v>
       </c>
       <c r="L19">
-        <v>0.8818565340436809</v>
+        <v>1.00747511129889</v>
       </c>
       <c r="M19">
-        <v>0.8806627085957787</v>
+        <v>1.007623536591156</v>
       </c>
       <c r="N19">
-        <v>0.8749641090379325</v>
+        <v>1.005121864142904</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.8409637258347378</v>
+        <v>0.9758965248228367</v>
       </c>
       <c r="D20">
-        <v>0.8590900640841717</v>
+        <v>0.9865915280600169</v>
       </c>
       <c r="E20">
-        <v>0.8661408671244809</v>
+        <v>0.9913893378330936</v>
       </c>
       <c r="F20">
-        <v>0.8649180596804681</v>
+        <v>0.9912519031175941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.03709626230626</v>
+      </c>
       <c r="J20">
-        <v>0.8737233217036477</v>
+        <v>1.004389291019417</v>
       </c>
       <c r="K20">
-        <v>0.8749743672695923</v>
+        <v>1.000874319278253</v>
       </c>
       <c r="L20">
-        <v>0.8818565340436809</v>
+        <v>1.005585304230321</v>
       </c>
       <c r="M20">
-        <v>0.8806627085957787</v>
+        <v>1.005450341442487</v>
       </c>
       <c r="N20">
-        <v>0.8749641090379325</v>
+        <v>1.004486673833186</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.8409637258347378</v>
+        <v>0.967359247774137</v>
       </c>
       <c r="D21">
-        <v>0.8590900640841717</v>
+        <v>0.9789844678136171</v>
       </c>
       <c r="E21">
-        <v>0.8661408671244809</v>
+        <v>0.9839807390410363</v>
       </c>
       <c r="F21">
-        <v>0.8649180596804681</v>
+        <v>0.9828815901733722</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.035076255218904</v>
+      </c>
       <c r="J21">
-        <v>0.8737233217036477</v>
+        <v>0.998288023725821</v>
       </c>
       <c r="K21">
-        <v>0.8749743672695923</v>
+        <v>0.9943752322227992</v>
       </c>
       <c r="L21">
-        <v>0.8818565340436809</v>
+        <v>0.9992720923095881</v>
       </c>
       <c r="M21">
-        <v>0.8806627085957787</v>
+        <v>0.9981946993364551</v>
       </c>
       <c r="N21">
-        <v>0.8749641090379325</v>
+        <v>1.002362352803835</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.8409637258347378</v>
+        <v>0.9618000825388774</v>
       </c>
       <c r="D22">
-        <v>0.8590900640841717</v>
+        <v>0.9740404832966059</v>
       </c>
       <c r="E22">
-        <v>0.8661408671244809</v>
+        <v>0.979167695212059</v>
       </c>
       <c r="F22">
-        <v>0.8649180596804681</v>
+        <v>0.9774439947955323</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.033748262517788</v>
+      </c>
       <c r="J22">
-        <v>0.8737233217036477</v>
+        <v>0.9943135402296447</v>
       </c>
       <c r="K22">
-        <v>0.8749743672695923</v>
+        <v>0.9901443611413195</v>
       </c>
       <c r="L22">
-        <v>0.8818565340436809</v>
+        <v>0.9951634570784662</v>
       </c>
       <c r="M22">
-        <v>0.8806627085957787</v>
+        <v>0.99347593637926</v>
       </c>
       <c r="N22">
-        <v>0.8749641090379325</v>
+        <v>1.000978124605824</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.8409637258347378</v>
+        <v>0.9647661897779929</v>
       </c>
       <c r="D23">
-        <v>0.8590900640841717</v>
+        <v>0.9766774272123139</v>
       </c>
       <c r="E23">
-        <v>0.8661408671244809</v>
+        <v>0.9817346124744479</v>
       </c>
       <c r="F23">
-        <v>0.8649180596804681</v>
+        <v>0.980343996911871</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.034457969741565</v>
+      </c>
       <c r="J23">
-        <v>0.8737233217036477</v>
+        <v>0.9964342459537572</v>
       </c>
       <c r="K23">
-        <v>0.8749743672695923</v>
+        <v>0.9924016113103299</v>
       </c>
       <c r="L23">
-        <v>0.8818565340436809</v>
+        <v>0.9973553758363934</v>
       </c>
       <c r="M23">
-        <v>0.8806627085957787</v>
+        <v>0.9959930585089626</v>
       </c>
       <c r="N23">
-        <v>0.8749641090379325</v>
+        <v>1.001716751956685</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.8409637258347378</v>
+        <v>0.9760366081504099</v>
       </c>
       <c r="D24">
-        <v>0.8590900640841717</v>
+        <v>0.9867164940190131</v>
       </c>
       <c r="E24">
-        <v>0.8661408671244809</v>
+        <v>0.9915110749253454</v>
       </c>
       <c r="F24">
-        <v>0.8649180596804681</v>
+        <v>0.9913894504775063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.037129193017507</v>
+      </c>
       <c r="J24">
-        <v>0.8737233217036477</v>
+        <v>1.004489369950664</v>
       </c>
       <c r="K24">
-        <v>0.8749743672695923</v>
+        <v>1.000980968975243</v>
       </c>
       <c r="L24">
-        <v>0.8818565340436809</v>
+        <v>1.005688923844767</v>
       </c>
       <c r="M24">
-        <v>0.8806627085957787</v>
+        <v>1.005569483387623</v>
       </c>
       <c r="N24">
-        <v>0.8749641090379325</v>
+        <v>1.004521510822137</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.8409637258347378</v>
+        <v>0.9883674935231468</v>
       </c>
       <c r="D25">
-        <v>0.8590900640841717</v>
+        <v>0.9977350678571619</v>
       </c>
       <c r="E25">
-        <v>0.8661408671244809</v>
+        <v>1.002249141684629</v>
       </c>
       <c r="F25">
-        <v>0.8649180596804681</v>
+        <v>1.003523840619503</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.039996966603913</v>
+      </c>
       <c r="J25">
-        <v>0.8737233217036477</v>
+        <v>1.013292781340179</v>
       </c>
       <c r="K25">
-        <v>0.8749743672695923</v>
+        <v>1.010368646027128</v>
       </c>
       <c r="L25">
-        <v>0.8818565340436809</v>
+        <v>1.014812642673667</v>
       </c>
       <c r="M25">
-        <v>0.8806627085957787</v>
+        <v>1.016067698690066</v>
       </c>
       <c r="N25">
-        <v>0.8749641090379325</v>
+        <v>1.007584498612598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9976806289944454</v>
+        <v>1.042221624808166</v>
       </c>
       <c r="D2">
-        <v>1.006081163327266</v>
+        <v>1.044866057099057</v>
       </c>
       <c r="E2">
-        <v>1.010388612336276</v>
+        <v>1.04930729370299</v>
       </c>
       <c r="F2">
-        <v>1.012725224345675</v>
+        <v>1.057663511938765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042116361147863</v>
+        <v>1.034452624761487</v>
       </c>
       <c r="J2">
-        <v>1.019930934047754</v>
+        <v>1.047298612227613</v>
       </c>
       <c r="K2">
-        <v>1.017456423052636</v>
+        <v>1.047635903941801</v>
       </c>
       <c r="L2">
-        <v>1.021705089954351</v>
+        <v>1.052064716290133</v>
       </c>
       <c r="M2">
-        <v>1.02401007817188</v>
+        <v>1.060397864627196</v>
       </c>
       <c r="N2">
-        <v>1.009891618646278</v>
+        <v>1.019553204223243</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004174490633823</v>
+        <v>1.043541132279711</v>
       </c>
       <c r="D3">
-        <v>1.011913060688768</v>
+        <v>1.046100559512942</v>
       </c>
       <c r="E3">
-        <v>1.01607938004703</v>
+        <v>1.050519502305762</v>
       </c>
       <c r="F3">
-        <v>1.019161105658432</v>
+        <v>1.059052704395053</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043565993572704</v>
+        <v>1.034662365183026</v>
       </c>
       <c r="J3">
-        <v>1.024551998130165</v>
+        <v>1.048262629974194</v>
       </c>
       <c r="K3">
-        <v>1.022395747517807</v>
+        <v>1.048680628156228</v>
       </c>
       <c r="L3">
-        <v>1.026510574388072</v>
+        <v>1.053088111783132</v>
       </c>
       <c r="M3">
-        <v>1.029554549005631</v>
+        <v>1.06159947743304</v>
       </c>
       <c r="N3">
-        <v>1.011495946491515</v>
+        <v>1.019881662141207</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008262295692723</v>
+        <v>1.04439410479829</v>
       </c>
       <c r="D4">
-        <v>1.015589406581754</v>
+        <v>1.046898827358242</v>
       </c>
       <c r="E4">
-        <v>1.019668228280749</v>
+        <v>1.051303480226943</v>
       </c>
       <c r="F4">
-        <v>1.02322128373666</v>
+        <v>1.059951466334157</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044465083769191</v>
+        <v>1.034796235155691</v>
       </c>
       <c r="J4">
-        <v>1.027456986709925</v>
+        <v>1.048885116285145</v>
       </c>
       <c r="K4">
-        <v>1.025503252857232</v>
+        <v>1.049355538934063</v>
       </c>
       <c r="L4">
-        <v>1.029534931854518</v>
+        <v>1.053749350221759</v>
       </c>
       <c r="M4">
-        <v>1.03304729927554</v>
+        <v>1.062376331971019</v>
       </c>
       <c r="N4">
-        <v>1.012503593494426</v>
+        <v>1.020093545274233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009954838512152</v>
+        <v>1.044752498088162</v>
       </c>
       <c r="D5">
-        <v>1.017112779616829</v>
+        <v>1.047234293549084</v>
       </c>
       <c r="E5">
-        <v>1.021155692562526</v>
+        <v>1.051632971303466</v>
       </c>
       <c r="F5">
-        <v>1.024904469183939</v>
+        <v>1.060329276395953</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044834066754397</v>
+        <v>1.034852072754924</v>
       </c>
       <c r="J5">
-        <v>1.02865879206329</v>
+        <v>1.049146501547095</v>
       </c>
       <c r="K5">
-        <v>1.026789429441393</v>
+        <v>1.04963901194066</v>
       </c>
       <c r="L5">
-        <v>1.030786947801585</v>
+        <v>1.054027106147197</v>
       </c>
       <c r="M5">
-        <v>1.034494025971175</v>
+        <v>1.062702764646174</v>
       </c>
       <c r="N5">
-        <v>1.012920232159836</v>
+        <v>1.020182465867116</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010237538643135</v>
+        <v>1.044812662501049</v>
       </c>
       <c r="D6">
-        <v>1.017367292267317</v>
+        <v>1.047290612523476</v>
       </c>
       <c r="E6">
-        <v>1.021404226199387</v>
+        <v>1.051688288924926</v>
       </c>
       <c r="F6">
-        <v>1.025185727486635</v>
+        <v>1.060392710747471</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044895502121163</v>
+        <v>1.034861422271333</v>
       </c>
       <c r="J6">
-        <v>1.028859465674517</v>
+        <v>1.049190371299885</v>
       </c>
       <c r="K6">
-        <v>1.027004225823427</v>
+        <v>1.04968659317111</v>
       </c>
       <c r="L6">
-        <v>1.030996054165647</v>
+        <v>1.054073729257289</v>
       </c>
       <c r="M6">
-        <v>1.034735699906749</v>
+        <v>1.062757565018215</v>
       </c>
       <c r="N6">
-        <v>1.012989787307677</v>
+        <v>1.020197386955313</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008285011855044</v>
+        <v>1.044398894433511</v>
       </c>
       <c r="D7">
-        <v>1.015609847621033</v>
+        <v>1.046903310363589</v>
       </c>
       <c r="E7">
-        <v>1.019688186116777</v>
+        <v>1.051307883265461</v>
       </c>
       <c r="F7">
-        <v>1.023243866135841</v>
+        <v>1.059956514761855</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044470049070414</v>
+        <v>1.034796982993812</v>
       </c>
       <c r="J7">
-        <v>1.027473120540076</v>
+        <v>1.048888610134667</v>
       </c>
       <c r="K7">
-        <v>1.025520517007264</v>
+        <v>1.049359327730365</v>
       </c>
       <c r="L7">
-        <v>1.029551736466933</v>
+        <v>1.053753062505305</v>
       </c>
       <c r="M7">
-        <v>1.033066714095655</v>
+        <v>1.062380694393156</v>
       </c>
       <c r="N7">
-        <v>1.012509187650704</v>
+        <v>1.020094734043903</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9998997479983395</v>
+        <v>1.042667734284943</v>
       </c>
       <c r="D8">
-        <v>1.008072928001561</v>
+        <v>1.045283376206215</v>
       </c>
       <c r="E8">
-        <v>1.012331865038113</v>
+        <v>1.049717050357236</v>
       </c>
       <c r="F8">
-        <v>1.014922630925296</v>
+        <v>1.058133026932216</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0426145316729</v>
+        <v>1.034523890144592</v>
       </c>
       <c r="J8">
-        <v>1.021510858752715</v>
+        <v>1.04762467683475</v>
       </c>
       <c r="K8">
-        <v>1.019144645571355</v>
+        <v>1.04798920194138</v>
       </c>
       <c r="L8">
-        <v>1.023347344700611</v>
+        <v>1.052410779450964</v>
       </c>
       <c r="M8">
-        <v>1.025904189578589</v>
+        <v>1.060804095848378</v>
       </c>
       <c r="N8">
-        <v>1.010440313604676</v>
+        <v>1.019664343412386</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9841826961001854</v>
+        <v>1.039610616933114</v>
       </c>
       <c r="D9">
-        <v>0.9939915609375609</v>
+        <v>1.042424585732423</v>
       </c>
       <c r="E9">
-        <v>0.9985999866954987</v>
+        <v>1.046910583888675</v>
       </c>
       <c r="F9">
-        <v>0.999399707726888</v>
+        <v>1.054918581912916</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039030939427012</v>
+        <v>1.034028498330026</v>
       </c>
       <c r="J9">
-        <v>1.010306640132084</v>
+        <v>1.045387406215377</v>
       </c>
       <c r="K9">
-        <v>1.007182878923461</v>
+        <v>1.045566347138422</v>
       </c>
       <c r="L9">
-        <v>1.011715819050485</v>
+        <v>1.050037975950759</v>
       </c>
       <c r="M9">
-        <v>1.012502531767959</v>
+        <v>1.058020655257326</v>
       </c>
       <c r="N9">
-        <v>1.006545881052274</v>
+        <v>1.018900917345011</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9729682338590612</v>
+        <v>1.037567851137506</v>
       </c>
       <c r="D10">
-        <v>0.9839803271871542</v>
+        <v>1.040515662092358</v>
       </c>
       <c r="E10">
-        <v>0.9888458400131557</v>
+        <v>1.045037251671935</v>
       </c>
       <c r="F10">
-        <v>0.9883781427976573</v>
+        <v>1.052774559625035</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036406240175871</v>
+        <v>1.033688670824624</v>
       </c>
       <c r="J10">
-        <v>1.002296975231829</v>
+        <v>1.043888959084115</v>
       </c>
       <c r="K10">
-        <v>0.9986449737325819</v>
+        <v>1.043945203943916</v>
       </c>
       <c r="L10">
-        <v>1.003419449636763</v>
+        <v>1.048450868936881</v>
       </c>
       <c r="M10">
-        <v>1.002960452543381</v>
+        <v>1.056161276149199</v>
       </c>
       <c r="N10">
-        <v>1.00375828245033</v>
+        <v>1.018388538068452</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.967910958527297</v>
+        <v>1.036682141663203</v>
       </c>
       <c r="D11">
-        <v>0.9794755339410428</v>
+        <v>1.039688305351366</v>
       </c>
       <c r="E11">
-        <v>0.9844588821529806</v>
+        <v>1.044225476080716</v>
       </c>
       <c r="F11">
-        <v>0.9834217823157437</v>
+        <v>1.051845870293756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035207533838924</v>
+        <v>1.033539243217778</v>
       </c>
       <c r="J11">
-        <v>0.998682411900921</v>
+        <v>1.043238431785468</v>
       </c>
       <c r="K11">
-        <v>0.9947951766553038</v>
+        <v>1.043241789383875</v>
       </c>
       <c r="L11">
-        <v>0.9996799554750431</v>
+        <v>1.047762351899239</v>
       </c>
       <c r="M11">
-        <v>0.9986632611250295</v>
+        <v>1.055355207751762</v>
       </c>
       <c r="N11">
-        <v>1.002499695332281</v>
+        <v>1.018165847187323</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9659996329160654</v>
+        <v>1.036352967640644</v>
       </c>
       <c r="D12">
-        <v>0.9777746172299336</v>
+        <v>1.039380867016289</v>
       </c>
       <c r="E12">
-        <v>0.9828027915345469</v>
+        <v>1.043923850932391</v>
       </c>
       <c r="F12">
-        <v>0.981550784914013</v>
+        <v>1.05150086198052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034752328707609</v>
+        <v>1.033483395710581</v>
       </c>
       <c r="J12">
-        <v>0.9973160621068623</v>
+        <v>1.042996539684025</v>
       </c>
       <c r="K12">
-        <v>0.9933403777796546</v>
+        <v>1.042980288621456</v>
       </c>
       <c r="L12">
-        <v>0.9982670495987893</v>
+        <v>1.0475064088047</v>
       </c>
       <c r="M12">
-        <v>0.9970401889388436</v>
+        <v>1.055055651965614</v>
       </c>
       <c r="N12">
-        <v>1.002023862636811</v>
+        <v>1.018083004532336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9664111489981962</v>
+        <v>1.036423584907043</v>
       </c>
       <c r="D13">
-        <v>0.9781407568318689</v>
+        <v>1.039446819131759</v>
       </c>
       <c r="E13">
-        <v>0.9831592666095155</v>
+        <v>1.043988554936428</v>
       </c>
       <c r="F13">
-        <v>0.9819535177031293</v>
+        <v>1.051574869851264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034850432633277</v>
+        <v>1.033495390746217</v>
       </c>
       <c r="J13">
-        <v>0.9976102534552098</v>
+        <v>1.043048438059391</v>
       </c>
       <c r="K13">
-        <v>0.9936535919599218</v>
+        <v>1.043036391493903</v>
       </c>
       <c r="L13">
-        <v>0.998571234795233</v>
+        <v>1.047561318448215</v>
       </c>
       <c r="M13">
-        <v>0.9973895964234426</v>
+        <v>1.055119914376061</v>
       </c>
       <c r="N13">
-        <v>1.002126317931747</v>
+        <v>1.018100780252311</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9677536534252423</v>
+        <v>1.036654935779623</v>
       </c>
       <c r="D14">
-        <v>0.9793355124898764</v>
+        <v>1.039662894898337</v>
       </c>
       <c r="E14">
-        <v>0.9843225439978018</v>
+        <v>1.044200545623375</v>
       </c>
       <c r="F14">
-        <v>0.9832677512900413</v>
+        <v>1.051817352881488</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035170113224981</v>
+        <v>1.033534633856664</v>
       </c>
       <c r="J14">
-        <v>0.9985699641573951</v>
+        <v>1.043218442177587</v>
       </c>
       <c r="K14">
-        <v>0.9946754401604873</v>
+        <v>1.043220178184132</v>
       </c>
       <c r="L14">
-        <v>0.9995636626790717</v>
+        <v>1.047741199606665</v>
       </c>
       <c r="M14">
-        <v>0.9985296590085946</v>
+        <v>1.05533044938121</v>
       </c>
       <c r="N14">
-        <v>1.002460536610022</v>
+        <v>1.018159001950796</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9685763824064182</v>
+        <v>1.036797454407994</v>
       </c>
       <c r="D15">
-        <v>0.980067911491129</v>
+        <v>1.039796010129246</v>
       </c>
       <c r="E15">
-        <v>0.9850356907258507</v>
+        <v>1.044331147305482</v>
       </c>
       <c r="F15">
-        <v>0.9840734459798673</v>
+        <v>1.051966747683285</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03536574086267</v>
+        <v>1.033558767296259</v>
       </c>
       <c r="J15">
-        <v>0.9991580718881258</v>
+        <v>1.043323153128374</v>
       </c>
       <c r="K15">
-        <v>0.9953016876487505</v>
+        <v>1.043333385800497</v>
       </c>
       <c r="L15">
-        <v>1.000171907462081</v>
+        <v>1.047852004087284</v>
       </c>
       <c r="M15">
-        <v>0.9992284587825938</v>
+        <v>1.055460147463962</v>
       </c>
       <c r="N15">
-        <v>1.002665336062913</v>
+        <v>1.018194857619387</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9732994130691367</v>
+        <v>1.037626607500619</v>
       </c>
       <c r="D16">
-        <v>0.9842755414034176</v>
+        <v>1.04057055425667</v>
       </c>
       <c r="E16">
-        <v>0.989133377591022</v>
+        <v>1.045091113356598</v>
       </c>
       <c r="F16">
-        <v>0.9887030100437874</v>
+        <v>1.052836186676073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036484433621053</v>
+        <v>1.033698539728988</v>
       </c>
       <c r="J16">
-        <v>1.002533633528372</v>
+        <v>1.043932096544475</v>
       </c>
       <c r="K16">
-        <v>0.9988970987759243</v>
+        <v>1.043991856419009</v>
       </c>
       <c r="L16">
-        <v>1.003664379867514</v>
+        <v>1.0484965360827</v>
       </c>
       <c r="M16">
-        <v>1.003241987969034</v>
+        <v>1.056214751993249</v>
       </c>
       <c r="N16">
-        <v>1.003840675646029</v>
+        <v>1.018403299809003</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9762064106580071</v>
+        <v>1.038146394283163</v>
       </c>
       <c r="D17">
-        <v>0.9868679782614617</v>
+        <v>1.041056193633868</v>
       </c>
       <c r="E17">
-        <v>0.9916586465096048</v>
+        <v>1.045567653857534</v>
       </c>
       <c r="F17">
-        <v>0.9915561879472962</v>
+        <v>1.053381475575478</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037169100289966</v>
+        <v>1.033785604223071</v>
       </c>
       <c r="J17">
-        <v>1.004610679287871</v>
+        <v>1.044313615841955</v>
       </c>
       <c r="K17">
-        <v>1.001110245014026</v>
+        <v>1.044404507205307</v>
       </c>
       <c r="L17">
-        <v>1.005814527851665</v>
+        <v>1.048900486334418</v>
       </c>
       <c r="M17">
-        <v>1.005713905476764</v>
+        <v>1.056687839578956</v>
       </c>
       <c r="N17">
-        <v>1.004563737602528</v>
+        <v>1.018533827858524</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9778827759837213</v>
+        <v>1.038449463763514</v>
       </c>
       <c r="D18">
-        <v>0.9883638684054102</v>
+        <v>1.04133938385899</v>
       </c>
       <c r="E18">
-        <v>0.9931159815929684</v>
+        <v>1.045845553238592</v>
       </c>
       <c r="F18">
-        <v>0.9932028217601909</v>
+        <v>1.053699503429454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037562498452023</v>
+        <v>1.033836167538088</v>
       </c>
       <c r="J18">
-        <v>1.005808195241039</v>
+        <v>1.044535986785207</v>
       </c>
       <c r="K18">
-        <v>1.00238652571604</v>
+        <v>1.044645059878858</v>
       </c>
       <c r="L18">
-        <v>1.007054609669956</v>
+        <v>1.049135979529863</v>
       </c>
       <c r="M18">
-        <v>1.00713992398192</v>
+        <v>1.056963692668005</v>
       </c>
       <c r="N18">
-        <v>1.004980558191964</v>
+        <v>1.018609882913832</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9784511838813942</v>
+        <v>1.03855278354902</v>
       </c>
       <c r="D19">
-        <v>0.9888712351040179</v>
+        <v>1.041435931804739</v>
       </c>
       <c r="E19">
-        <v>0.9936103054424114</v>
+        <v>1.045940299916801</v>
       </c>
       <c r="F19">
-        <v>0.9937613671140447</v>
+        <v>1.053807937771095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03769564414541</v>
+        <v>1.033853371044252</v>
       </c>
       <c r="J19">
-        <v>1.006214194509589</v>
+        <v>1.044611782018097</v>
       </c>
       <c r="K19">
-        <v>1.002819279248202</v>
+        <v>1.044727058562453</v>
       </c>
       <c r="L19">
-        <v>1.00747511129889</v>
+        <v>1.049216255671238</v>
       </c>
       <c r="M19">
-        <v>1.007623536591156</v>
+        <v>1.057057736149139</v>
       </c>
       <c r="N19">
-        <v>1.005121864142904</v>
+        <v>1.018635802227413</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9758965248228367</v>
+        <v>1.038090637843534</v>
       </c>
       <c r="D20">
-        <v>0.9865915280600169</v>
+        <v>1.041004096913252</v>
       </c>
       <c r="E20">
-        <v>0.9913893378330936</v>
+        <v>1.045516531665282</v>
       </c>
       <c r="F20">
-        <v>0.9912519031175941</v>
+        <v>1.053322974368541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03709626230626</v>
+        <v>1.033776285782176</v>
       </c>
       <c r="J20">
-        <v>1.004389291019417</v>
+        <v>1.044272699297926</v>
       </c>
       <c r="K20">
-        <v>1.000874319278253</v>
+        <v>1.044360248142639</v>
       </c>
       <c r="L20">
-        <v>1.005585304230321</v>
+        <v>1.04885715916361</v>
       </c>
       <c r="M20">
-        <v>1.005450341442487</v>
+        <v>1.056637091191176</v>
       </c>
       <c r="N20">
-        <v>1.004486673833186</v>
+        <v>1.018519831690833</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.967359247774137</v>
+        <v>1.036586813781084</v>
       </c>
       <c r="D21">
-        <v>0.9789844678136171</v>
+        <v>1.039599269348568</v>
       </c>
       <c r="E21">
-        <v>0.9839807390410363</v>
+        <v>1.044138122318442</v>
       </c>
       <c r="F21">
-        <v>0.9828815901733722</v>
+        <v>1.051745949138654</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035076255218904</v>
+        <v>1.033523087226565</v>
       </c>
       <c r="J21">
-        <v>0.998288023725821</v>
+        <v>1.043168387332311</v>
       </c>
       <c r="K21">
-        <v>0.9943752322227992</v>
+        <v>1.043166063721932</v>
       </c>
       <c r="L21">
-        <v>0.9992720923095881</v>
+        <v>1.047688234561264</v>
       </c>
       <c r="M21">
-        <v>0.9981946993364551</v>
+        <v>1.055268456135745</v>
       </c>
       <c r="N21">
-        <v>1.002362352803835</v>
+        <v>1.018141860580442</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9618000825388774</v>
+        <v>1.03564024388576</v>
       </c>
       <c r="D22">
-        <v>0.9740404832966059</v>
+        <v>1.038715295264308</v>
       </c>
       <c r="E22">
-        <v>0.979167695212059</v>
+        <v>1.043270906911922</v>
       </c>
       <c r="F22">
-        <v>0.9774439947955323</v>
+        <v>1.050754109083341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033748262517788</v>
+        <v>1.033361903757505</v>
       </c>
       <c r="J22">
-        <v>0.9943135402296447</v>
+        <v>1.042472572211683</v>
       </c>
       <c r="K22">
-        <v>0.9901443611413195</v>
+        <v>1.042413950550026</v>
       </c>
       <c r="L22">
-        <v>0.9951634570784662</v>
+        <v>1.046952142512219</v>
       </c>
       <c r="M22">
-        <v>0.99347593637926</v>
+        <v>1.054407093647662</v>
       </c>
       <c r="N22">
-        <v>1.000978124605824</v>
+        <v>1.017903489396212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9647661897779929</v>
+        <v>1.036142140286336</v>
       </c>
       <c r="D23">
-        <v>0.9766774272123139</v>
+        <v>1.039183974646819</v>
       </c>
       <c r="E23">
-        <v>0.9817346124744479</v>
+        <v>1.043730688079898</v>
       </c>
       <c r="F23">
-        <v>0.980343996911871</v>
+        <v>1.051279932416045</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034457969741565</v>
+        <v>1.033447538853376</v>
       </c>
       <c r="J23">
-        <v>0.9964342459537572</v>
+        <v>1.042841579389231</v>
       </c>
       <c r="K23">
-        <v>0.9924016113103299</v>
+        <v>1.042812782701733</v>
       </c>
       <c r="L23">
-        <v>0.9973553758363934</v>
+        <v>1.04734246833456</v>
       </c>
       <c r="M23">
-        <v>0.9959930585089626</v>
+        <v>1.054863799896536</v>
       </c>
       <c r="N23">
-        <v>1.001716751956685</v>
+        <v>1.018029923618495</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9760366081504099</v>
+        <v>1.038115832128569</v>
       </c>
       <c r="D24">
-        <v>0.9867164940190131</v>
+        <v>1.041027637410409</v>
       </c>
       <c r="E24">
-        <v>0.9915110749253454</v>
+        <v>1.045539631764429</v>
       </c>
       <c r="F24">
-        <v>0.9913894504775063</v>
+        <v>1.053349408638077</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037129193017507</v>
+        <v>1.033780497064039</v>
       </c>
       <c r="J24">
-        <v>1.004489369950664</v>
+        <v>1.044291188225831</v>
       </c>
       <c r="K24">
-        <v>1.000980968975243</v>
+        <v>1.044380247338967</v>
       </c>
       <c r="L24">
-        <v>1.005688923844767</v>
+        <v>1.04887673723055</v>
       </c>
       <c r="M24">
-        <v>1.005569483387623</v>
+        <v>1.056660022483832</v>
       </c>
       <c r="N24">
-        <v>1.004521510822137</v>
+        <v>1.018526156202926</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9883674935231468</v>
+        <v>1.040401762455423</v>
       </c>
       <c r="D25">
-        <v>0.9977350678571619</v>
+        <v>1.043164176831817</v>
       </c>
       <c r="E25">
-        <v>1.002249141684629</v>
+        <v>1.04763652356533</v>
       </c>
       <c r="F25">
-        <v>1.003523840619503</v>
+        <v>1.055749762394881</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039996966603913</v>
+        <v>1.034158252082702</v>
       </c>
       <c r="J25">
-        <v>1.013292781340179</v>
+        <v>1.045967003789544</v>
       </c>
       <c r="K25">
-        <v>1.010368646027128</v>
+        <v>1.046193741038861</v>
       </c>
       <c r="L25">
-        <v>1.014812642673667</v>
+        <v>1.050652312818411</v>
       </c>
       <c r="M25">
-        <v>1.016067698690066</v>
+        <v>1.058740887441604</v>
       </c>
       <c r="N25">
-        <v>1.007584498612598</v>
+        <v>1.01909888178733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042221624808166</v>
+        <v>0.9976806289944433</v>
       </c>
       <c r="D2">
-        <v>1.044866057099057</v>
+        <v>1.006081163327264</v>
       </c>
       <c r="E2">
-        <v>1.04930729370299</v>
+        <v>1.010388612336274</v>
       </c>
       <c r="F2">
-        <v>1.057663511938765</v>
+        <v>1.012725224345673</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034452624761487</v>
+        <v>1.042116361147863</v>
       </c>
       <c r="J2">
-        <v>1.047298612227613</v>
+        <v>1.019930934047752</v>
       </c>
       <c r="K2">
-        <v>1.047635903941801</v>
+        <v>1.017456423052634</v>
       </c>
       <c r="L2">
-        <v>1.052064716290133</v>
+        <v>1.021705089954349</v>
       </c>
       <c r="M2">
-        <v>1.060397864627196</v>
+        <v>1.024010078171878</v>
       </c>
       <c r="N2">
-        <v>1.019553204223243</v>
+        <v>1.009891618646277</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043541132279711</v>
+        <v>1.004174490633823</v>
       </c>
       <c r="D3">
-        <v>1.046100559512942</v>
+        <v>1.011913060688769</v>
       </c>
       <c r="E3">
-        <v>1.050519502305762</v>
+        <v>1.01607938004703</v>
       </c>
       <c r="F3">
-        <v>1.059052704395053</v>
+        <v>1.019161105658432</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034662365183026</v>
+        <v>1.043565993572705</v>
       </c>
       <c r="J3">
-        <v>1.048262629974194</v>
+        <v>1.024551998130166</v>
       </c>
       <c r="K3">
-        <v>1.048680628156228</v>
+        <v>1.022395747517807</v>
       </c>
       <c r="L3">
-        <v>1.053088111783132</v>
+        <v>1.026510574388073</v>
       </c>
       <c r="M3">
-        <v>1.06159947743304</v>
+        <v>1.029554549005631</v>
       </c>
       <c r="N3">
-        <v>1.019881662141207</v>
+        <v>1.011495946491515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04439410479829</v>
+        <v>1.008262295692721</v>
       </c>
       <c r="D4">
-        <v>1.046898827358242</v>
+        <v>1.015589406581752</v>
       </c>
       <c r="E4">
-        <v>1.051303480226943</v>
+        <v>1.019668228280746</v>
       </c>
       <c r="F4">
-        <v>1.059951466334157</v>
+        <v>1.023221283736658</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034796235155691</v>
+        <v>1.04446508376919</v>
       </c>
       <c r="J4">
-        <v>1.048885116285145</v>
+        <v>1.027456986709922</v>
       </c>
       <c r="K4">
-        <v>1.049355538934063</v>
+        <v>1.025503252857229</v>
       </c>
       <c r="L4">
-        <v>1.053749350221759</v>
+        <v>1.029534931854516</v>
       </c>
       <c r="M4">
-        <v>1.062376331971019</v>
+        <v>1.033047299275538</v>
       </c>
       <c r="N4">
-        <v>1.020093545274233</v>
+        <v>1.012503593494426</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044752498088162</v>
+        <v>1.009954838512152</v>
       </c>
       <c r="D5">
-        <v>1.047234293549084</v>
+        <v>1.017112779616829</v>
       </c>
       <c r="E5">
-        <v>1.051632971303466</v>
+        <v>1.021155692562526</v>
       </c>
       <c r="F5">
-        <v>1.060329276395953</v>
+        <v>1.024904469183939</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034852072754924</v>
+        <v>1.044834066754397</v>
       </c>
       <c r="J5">
-        <v>1.049146501547095</v>
+        <v>1.02865879206329</v>
       </c>
       <c r="K5">
-        <v>1.04963901194066</v>
+        <v>1.026789429441393</v>
       </c>
       <c r="L5">
-        <v>1.054027106147197</v>
+        <v>1.030786947801585</v>
       </c>
       <c r="M5">
-        <v>1.062702764646174</v>
+        <v>1.034494025971175</v>
       </c>
       <c r="N5">
-        <v>1.020182465867116</v>
+        <v>1.012920232159836</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044812662501049</v>
+        <v>1.010237538643135</v>
       </c>
       <c r="D6">
-        <v>1.047290612523476</v>
+        <v>1.017367292267316</v>
       </c>
       <c r="E6">
-        <v>1.051688288924926</v>
+        <v>1.021404226199387</v>
       </c>
       <c r="F6">
-        <v>1.060392710747471</v>
+        <v>1.025185727486635</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034861422271333</v>
+        <v>1.044895502121163</v>
       </c>
       <c r="J6">
-        <v>1.049190371299885</v>
+        <v>1.028859465674516</v>
       </c>
       <c r="K6">
-        <v>1.04968659317111</v>
+        <v>1.027004225823427</v>
       </c>
       <c r="L6">
-        <v>1.054073729257289</v>
+        <v>1.030996054165646</v>
       </c>
       <c r="M6">
-        <v>1.062757565018215</v>
+        <v>1.034735699906748</v>
       </c>
       <c r="N6">
-        <v>1.020197386955313</v>
+        <v>1.012989787307677</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044398894433511</v>
+        <v>1.008285011855043</v>
       </c>
       <c r="D7">
-        <v>1.046903310363589</v>
+        <v>1.015609847621032</v>
       </c>
       <c r="E7">
-        <v>1.051307883265461</v>
+        <v>1.019688186116776</v>
       </c>
       <c r="F7">
-        <v>1.059956514761855</v>
+        <v>1.023243866135841</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034796982993812</v>
+        <v>1.044470049070413</v>
       </c>
       <c r="J7">
-        <v>1.048888610134667</v>
+        <v>1.027473120540074</v>
       </c>
       <c r="K7">
-        <v>1.049359327730365</v>
+        <v>1.025520517007262</v>
       </c>
       <c r="L7">
-        <v>1.053753062505305</v>
+        <v>1.029551736466932</v>
       </c>
       <c r="M7">
-        <v>1.062380694393156</v>
+        <v>1.033066714095654</v>
       </c>
       <c r="N7">
-        <v>1.020094734043903</v>
+        <v>1.012509187650704</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042667734284943</v>
+        <v>0.9998997479983394</v>
       </c>
       <c r="D8">
-        <v>1.045283376206215</v>
+        <v>1.008072928001561</v>
       </c>
       <c r="E8">
-        <v>1.049717050357236</v>
+        <v>1.012331865038112</v>
       </c>
       <c r="F8">
-        <v>1.058133026932216</v>
+        <v>1.014922630925295</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034523890144592</v>
+        <v>1.0426145316729</v>
       </c>
       <c r="J8">
-        <v>1.04762467683475</v>
+        <v>1.021510858752715</v>
       </c>
       <c r="K8">
-        <v>1.04798920194138</v>
+        <v>1.019144645571355</v>
       </c>
       <c r="L8">
-        <v>1.052410779450964</v>
+        <v>1.02334734470061</v>
       </c>
       <c r="M8">
-        <v>1.060804095848378</v>
+        <v>1.025904189578589</v>
       </c>
       <c r="N8">
-        <v>1.019664343412386</v>
+        <v>1.010440313604676</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039610616933114</v>
+        <v>0.9841826961001866</v>
       </c>
       <c r="D9">
-        <v>1.042424585732423</v>
+        <v>0.9939915609375621</v>
       </c>
       <c r="E9">
-        <v>1.046910583888675</v>
+        <v>0.9985999866954995</v>
       </c>
       <c r="F9">
-        <v>1.054918581912916</v>
+        <v>0.999399707726889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034028498330026</v>
+        <v>1.039030939427013</v>
       </c>
       <c r="J9">
-        <v>1.045387406215377</v>
+        <v>1.010306640132085</v>
       </c>
       <c r="K9">
-        <v>1.045566347138422</v>
+        <v>1.007182878923462</v>
       </c>
       <c r="L9">
-        <v>1.050037975950759</v>
+        <v>1.011715819050486</v>
       </c>
       <c r="M9">
-        <v>1.058020655257326</v>
+        <v>1.01250253176796</v>
       </c>
       <c r="N9">
-        <v>1.018900917345011</v>
+        <v>1.006545881052274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037567851137506</v>
+        <v>0.9729682338590612</v>
       </c>
       <c r="D10">
-        <v>1.040515662092358</v>
+        <v>0.9839803271871542</v>
       </c>
       <c r="E10">
-        <v>1.045037251671935</v>
+        <v>0.988845840013156</v>
       </c>
       <c r="F10">
-        <v>1.052774559625035</v>
+        <v>0.988378142797658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033688670824624</v>
+        <v>1.036406240175871</v>
       </c>
       <c r="J10">
-        <v>1.043888959084115</v>
+        <v>1.002296975231828</v>
       </c>
       <c r="K10">
-        <v>1.043945203943916</v>
+        <v>0.9986449737325822</v>
       </c>
       <c r="L10">
-        <v>1.048450868936881</v>
+        <v>1.003419449636763</v>
       </c>
       <c r="M10">
-        <v>1.056161276149199</v>
+        <v>1.002960452543382</v>
       </c>
       <c r="N10">
-        <v>1.018388538068452</v>
+        <v>1.00375828245033</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036682141663203</v>
+        <v>0.9679109585272969</v>
       </c>
       <c r="D11">
-        <v>1.039688305351366</v>
+        <v>0.979475533941043</v>
       </c>
       <c r="E11">
-        <v>1.044225476080716</v>
+        <v>0.9844588821529804</v>
       </c>
       <c r="F11">
-        <v>1.051845870293756</v>
+        <v>0.9834217823157435</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033539243217778</v>
+        <v>1.035207533838924</v>
       </c>
       <c r="J11">
-        <v>1.043238431785468</v>
+        <v>0.998682411900921</v>
       </c>
       <c r="K11">
-        <v>1.043241789383875</v>
+        <v>0.9947951766553039</v>
       </c>
       <c r="L11">
-        <v>1.047762351899239</v>
+        <v>0.999679955475043</v>
       </c>
       <c r="M11">
-        <v>1.055355207751762</v>
+        <v>0.9986632611250292</v>
       </c>
       <c r="N11">
-        <v>1.018165847187323</v>
+        <v>1.002499695332281</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036352967640644</v>
+        <v>0.9659996329160658</v>
       </c>
       <c r="D12">
-        <v>1.039380867016289</v>
+        <v>0.9777746172299341</v>
       </c>
       <c r="E12">
-        <v>1.043923850932391</v>
+        <v>0.9828027915345471</v>
       </c>
       <c r="F12">
-        <v>1.05150086198052</v>
+        <v>0.9815507849140137</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033483395710581</v>
+        <v>1.034752328707609</v>
       </c>
       <c r="J12">
-        <v>1.042996539684025</v>
+        <v>0.9973160621068629</v>
       </c>
       <c r="K12">
-        <v>1.042980288621456</v>
+        <v>0.9933403777796549</v>
       </c>
       <c r="L12">
-        <v>1.0475064088047</v>
+        <v>0.9982670495987898</v>
       </c>
       <c r="M12">
-        <v>1.055055651965614</v>
+        <v>0.9970401889388441</v>
       </c>
       <c r="N12">
-        <v>1.018083004532336</v>
+        <v>1.002023862636811</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036423584907043</v>
+        <v>0.9664111489981962</v>
       </c>
       <c r="D13">
-        <v>1.039446819131759</v>
+        <v>0.9781407568318687</v>
       </c>
       <c r="E13">
-        <v>1.043988554936428</v>
+        <v>0.9831592666095154</v>
       </c>
       <c r="F13">
-        <v>1.051574869851264</v>
+        <v>0.9819535177031293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033495390746217</v>
+        <v>1.034850432633277</v>
       </c>
       <c r="J13">
-        <v>1.043048438059391</v>
+        <v>0.99761025345521</v>
       </c>
       <c r="K13">
-        <v>1.043036391493903</v>
+        <v>0.9936535919599219</v>
       </c>
       <c r="L13">
-        <v>1.047561318448215</v>
+        <v>0.9985712347952331</v>
       </c>
       <c r="M13">
-        <v>1.055119914376061</v>
+        <v>0.9973895964234425</v>
       </c>
       <c r="N13">
-        <v>1.018100780252311</v>
+        <v>1.002126317931747</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036654935779623</v>
+        <v>0.9677536534252428</v>
       </c>
       <c r="D14">
-        <v>1.039662894898337</v>
+        <v>0.979335512489877</v>
       </c>
       <c r="E14">
-        <v>1.044200545623375</v>
+        <v>0.9843225439978023</v>
       </c>
       <c r="F14">
-        <v>1.051817352881488</v>
+        <v>0.9832677512900418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033534633856664</v>
+        <v>1.035170113224981</v>
       </c>
       <c r="J14">
-        <v>1.043218442177587</v>
+        <v>0.9985699641573957</v>
       </c>
       <c r="K14">
-        <v>1.043220178184132</v>
+        <v>0.9946754401604879</v>
       </c>
       <c r="L14">
-        <v>1.047741199606665</v>
+        <v>0.9995636626790723</v>
       </c>
       <c r="M14">
-        <v>1.05533044938121</v>
+        <v>0.998529659008595</v>
       </c>
       <c r="N14">
-        <v>1.018159001950796</v>
+        <v>1.002460536610022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036797454407994</v>
+        <v>0.9685763824064189</v>
       </c>
       <c r="D15">
-        <v>1.039796010129246</v>
+        <v>0.9800679114911295</v>
       </c>
       <c r="E15">
-        <v>1.044331147305482</v>
+        <v>0.9850356907258514</v>
       </c>
       <c r="F15">
-        <v>1.051966747683285</v>
+        <v>0.9840734459798678</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033558767296259</v>
+        <v>1.03536574086267</v>
       </c>
       <c r="J15">
-        <v>1.043323153128374</v>
+        <v>0.9991580718881263</v>
       </c>
       <c r="K15">
-        <v>1.043333385800497</v>
+        <v>0.9953016876487509</v>
       </c>
       <c r="L15">
-        <v>1.047852004087284</v>
+        <v>1.000171907462081</v>
       </c>
       <c r="M15">
-        <v>1.055460147463962</v>
+        <v>0.9992284587825943</v>
       </c>
       <c r="N15">
-        <v>1.018194857619387</v>
+        <v>1.002665336062914</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037626607500619</v>
+        <v>0.973299413069136</v>
       </c>
       <c r="D16">
-        <v>1.04057055425667</v>
+        <v>0.9842755414034174</v>
       </c>
       <c r="E16">
-        <v>1.045091113356598</v>
+        <v>0.9891333775910215</v>
       </c>
       <c r="F16">
-        <v>1.052836186676073</v>
+        <v>0.9887030100437868</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033698539728988</v>
+        <v>1.036484433621053</v>
       </c>
       <c r="J16">
-        <v>1.043932096544475</v>
+        <v>1.002533633528372</v>
       </c>
       <c r="K16">
-        <v>1.043991856419009</v>
+        <v>0.9988970987759239</v>
       </c>
       <c r="L16">
-        <v>1.0484965360827</v>
+        <v>1.003664379867514</v>
       </c>
       <c r="M16">
-        <v>1.056214751993249</v>
+        <v>1.003241987969034</v>
       </c>
       <c r="N16">
-        <v>1.018403299809003</v>
+        <v>1.003840675646029</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038146394283163</v>
+        <v>0.976206410658006</v>
       </c>
       <c r="D17">
-        <v>1.041056193633868</v>
+        <v>0.9868679782614606</v>
       </c>
       <c r="E17">
-        <v>1.045567653857534</v>
+        <v>0.9916586465096039</v>
       </c>
       <c r="F17">
-        <v>1.053381475575478</v>
+        <v>0.9915561879472953</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033785604223071</v>
+        <v>1.037169100289965</v>
       </c>
       <c r="J17">
-        <v>1.044313615841955</v>
+        <v>1.00461067928787</v>
       </c>
       <c r="K17">
-        <v>1.044404507205307</v>
+        <v>1.001110245014025</v>
       </c>
       <c r="L17">
-        <v>1.048900486334418</v>
+        <v>1.005814527851664</v>
       </c>
       <c r="M17">
-        <v>1.056687839578956</v>
+        <v>1.005713905476763</v>
       </c>
       <c r="N17">
-        <v>1.018533827858524</v>
+        <v>1.004563737602528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038449463763514</v>
+        <v>0.9778827759837202</v>
       </c>
       <c r="D18">
-        <v>1.04133938385899</v>
+        <v>0.988363868405409</v>
       </c>
       <c r="E18">
-        <v>1.045845553238592</v>
+        <v>0.9931159815929677</v>
       </c>
       <c r="F18">
-        <v>1.053699503429454</v>
+        <v>0.9932028217601899</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033836167538088</v>
+        <v>1.037562498452023</v>
       </c>
       <c r="J18">
-        <v>1.044535986785207</v>
+        <v>1.005808195241038</v>
       </c>
       <c r="K18">
-        <v>1.044645059878858</v>
+        <v>1.002386525716039</v>
       </c>
       <c r="L18">
-        <v>1.049135979529863</v>
+        <v>1.007054609669955</v>
       </c>
       <c r="M18">
-        <v>1.056963692668005</v>
+        <v>1.007139923981919</v>
       </c>
       <c r="N18">
-        <v>1.018609882913832</v>
+        <v>1.004980558191964</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03855278354902</v>
+        <v>0.9784511838813942</v>
       </c>
       <c r="D19">
-        <v>1.041435931804739</v>
+        <v>0.9888712351040181</v>
       </c>
       <c r="E19">
-        <v>1.045940299916801</v>
+        <v>0.9936103054424111</v>
       </c>
       <c r="F19">
-        <v>1.053807937771095</v>
+        <v>0.9937613671140446</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033853371044252</v>
+        <v>1.03769564414541</v>
       </c>
       <c r="J19">
-        <v>1.044611782018097</v>
+        <v>1.006214194509589</v>
       </c>
       <c r="K19">
-        <v>1.044727058562453</v>
+        <v>1.002819279248202</v>
       </c>
       <c r="L19">
-        <v>1.049216255671238</v>
+        <v>1.00747511129889</v>
       </c>
       <c r="M19">
-        <v>1.057057736149139</v>
+        <v>1.007623536591156</v>
       </c>
       <c r="N19">
-        <v>1.018635802227413</v>
+        <v>1.005121864142904</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038090637843534</v>
+        <v>0.9758965248228394</v>
       </c>
       <c r="D20">
-        <v>1.041004096913252</v>
+        <v>0.9865915280600195</v>
       </c>
       <c r="E20">
-        <v>1.045516531665282</v>
+        <v>0.9913893378330958</v>
       </c>
       <c r="F20">
-        <v>1.053322974368541</v>
+        <v>0.9912519031175964</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033776285782176</v>
+        <v>1.037096262306261</v>
       </c>
       <c r="J20">
-        <v>1.044272699297926</v>
+        <v>1.004389291019419</v>
       </c>
       <c r="K20">
-        <v>1.044360248142639</v>
+        <v>1.000874319278256</v>
       </c>
       <c r="L20">
-        <v>1.04885715916361</v>
+        <v>1.005585304230323</v>
       </c>
       <c r="M20">
-        <v>1.056637091191176</v>
+        <v>1.005450341442489</v>
       </c>
       <c r="N20">
-        <v>1.018519831690833</v>
+        <v>1.004486673833187</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036586813781084</v>
+        <v>0.9673592477741373</v>
       </c>
       <c r="D21">
-        <v>1.039599269348568</v>
+        <v>0.9789844678136178</v>
       </c>
       <c r="E21">
-        <v>1.044138122318442</v>
+        <v>0.9839807390410368</v>
       </c>
       <c r="F21">
-        <v>1.051745949138654</v>
+        <v>0.9828815901733722</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033523087226565</v>
+        <v>1.035076255218904</v>
       </c>
       <c r="J21">
-        <v>1.043168387332311</v>
+        <v>0.9982880237258214</v>
       </c>
       <c r="K21">
-        <v>1.043166063721932</v>
+        <v>0.9943752322227998</v>
       </c>
       <c r="L21">
-        <v>1.047688234561264</v>
+        <v>0.9992720923095885</v>
       </c>
       <c r="M21">
-        <v>1.055268456135745</v>
+        <v>0.9981946993364552</v>
       </c>
       <c r="N21">
-        <v>1.018141860580442</v>
+        <v>1.002362352803835</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03564024388576</v>
+        <v>0.9618000825388785</v>
       </c>
       <c r="D22">
-        <v>1.038715295264308</v>
+        <v>0.9740404832966069</v>
       </c>
       <c r="E22">
-        <v>1.043270906911922</v>
+        <v>0.9791676952120597</v>
       </c>
       <c r="F22">
-        <v>1.050754109083341</v>
+        <v>0.9774439947955333</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033361903757505</v>
+        <v>1.033748262517789</v>
       </c>
       <c r="J22">
-        <v>1.042472572211683</v>
+        <v>0.9943135402296455</v>
       </c>
       <c r="K22">
-        <v>1.042413950550026</v>
+        <v>0.9901443611413205</v>
       </c>
       <c r="L22">
-        <v>1.046952142512219</v>
+        <v>0.9951634570784669</v>
       </c>
       <c r="M22">
-        <v>1.054407093647662</v>
+        <v>0.993475936379261</v>
       </c>
       <c r="N22">
-        <v>1.017903489396212</v>
+        <v>1.000978124605824</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036142140286336</v>
+        <v>0.9647661897779952</v>
       </c>
       <c r="D23">
-        <v>1.039183974646819</v>
+        <v>0.9766774272123161</v>
       </c>
       <c r="E23">
-        <v>1.043730688079898</v>
+        <v>0.9817346124744499</v>
       </c>
       <c r="F23">
-        <v>1.051279932416045</v>
+        <v>0.9803439969118729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033447538853376</v>
+        <v>1.034457969741566</v>
       </c>
       <c r="J23">
-        <v>1.042841579389231</v>
+        <v>0.9964342459537593</v>
       </c>
       <c r="K23">
-        <v>1.042812782701733</v>
+        <v>0.9924016113103322</v>
       </c>
       <c r="L23">
-        <v>1.04734246833456</v>
+        <v>0.9973553758363956</v>
       </c>
       <c r="M23">
-        <v>1.054863799896536</v>
+        <v>0.9959930585089647</v>
       </c>
       <c r="N23">
-        <v>1.018029923618495</v>
+        <v>1.001716751956686</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038115832128569</v>
+        <v>0.9760366081504095</v>
       </c>
       <c r="D24">
-        <v>1.041027637410409</v>
+        <v>0.9867164940190126</v>
       </c>
       <c r="E24">
-        <v>1.045539631764429</v>
+        <v>0.9915110749253448</v>
       </c>
       <c r="F24">
-        <v>1.053349408638077</v>
+        <v>0.9913894504775059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033780497064039</v>
+        <v>1.037129193017507</v>
       </c>
       <c r="J24">
-        <v>1.044291188225831</v>
+        <v>1.004489369950663</v>
       </c>
       <c r="K24">
-        <v>1.044380247338967</v>
+        <v>1.000980968975243</v>
       </c>
       <c r="L24">
-        <v>1.04887673723055</v>
+        <v>1.005688923844767</v>
       </c>
       <c r="M24">
-        <v>1.056660022483832</v>
+        <v>1.005569483387622</v>
       </c>
       <c r="N24">
-        <v>1.018526156202926</v>
+        <v>1.004521510822137</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040401762455423</v>
+        <v>0.9883674935231473</v>
       </c>
       <c r="D25">
-        <v>1.043164176831817</v>
+        <v>0.9977350678571627</v>
       </c>
       <c r="E25">
-        <v>1.04763652356533</v>
+        <v>1.00224914168463</v>
       </c>
       <c r="F25">
-        <v>1.055749762394881</v>
+        <v>1.003523840619504</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034158252082702</v>
+        <v>1.039996966603914</v>
       </c>
       <c r="J25">
-        <v>1.045967003789544</v>
+        <v>1.01329278134018</v>
       </c>
       <c r="K25">
-        <v>1.046193741038861</v>
+        <v>1.010368646027129</v>
       </c>
       <c r="L25">
-        <v>1.050652312818411</v>
+        <v>1.014812642673668</v>
       </c>
       <c r="M25">
-        <v>1.058740887441604</v>
+        <v>1.016067698690067</v>
       </c>
       <c r="N25">
-        <v>1.01909888178733</v>
+        <v>1.007584498612598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,989 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.9976806289944433</v>
+        <v>0.998475040900502</v>
       </c>
       <c r="D2">
-        <v>1.006081163327264</v>
+        <v>1.017280083862871</v>
       </c>
       <c r="E2">
-        <v>1.010388612336274</v>
+        <v>1.0147644329708</v>
       </c>
       <c r="F2">
-        <v>1.012725224345673</v>
+        <v>1.025669206945394</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.042116361147863</v>
-      </c>
       <c r="J2">
-        <v>1.019930934047752</v>
+        <v>1.020701459097656</v>
       </c>
       <c r="K2">
-        <v>1.017456423052634</v>
+        <v>1.028503816528616</v>
       </c>
       <c r="L2">
-        <v>1.021705089954349</v>
+        <v>1.026021837634958</v>
       </c>
       <c r="M2">
-        <v>1.024010078171878</v>
+        <v>1.036782147092192</v>
       </c>
       <c r="N2">
-        <v>1.009891618646277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010213419362273</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037682987050615</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031224816447054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>1.004174490633823</v>
+        <v>1.002560492713944</v>
       </c>
       <c r="D3">
-        <v>1.011913060688769</v>
+        <v>1.020321860304007</v>
       </c>
       <c r="E3">
-        <v>1.01607938004703</v>
+        <v>1.017987956808673</v>
       </c>
       <c r="F3">
-        <v>1.019161105658432</v>
+        <v>1.028768308318101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.043565993572705</v>
-      </c>
       <c r="J3">
-        <v>1.024551998130166</v>
+        <v>1.022981598661046</v>
       </c>
       <c r="K3">
-        <v>1.022395747517807</v>
+        <v>1.030701157936587</v>
       </c>
       <c r="L3">
-        <v>1.026510574388073</v>
+        <v>1.028395737670457</v>
       </c>
       <c r="M3">
-        <v>1.029554549005631</v>
+        <v>1.039045864047586</v>
       </c>
       <c r="N3">
-        <v>1.011495946491515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011049437485393</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039474572036259</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032775870512084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>1.008262295692721</v>
+        <v>1.005159612783963</v>
       </c>
       <c r="D4">
-        <v>1.015589406581752</v>
+        <v>1.022264229391817</v>
       </c>
       <c r="E4">
-        <v>1.019668228280746</v>
+        <v>1.020045056602728</v>
       </c>
       <c r="F4">
-        <v>1.023221283736658</v>
+        <v>1.030747970864558</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.04446508376919</v>
-      </c>
       <c r="J4">
-        <v>1.027456986709922</v>
+        <v>1.024432249706703</v>
       </c>
       <c r="K4">
-        <v>1.025503252857229</v>
+        <v>1.032101170355304</v>
       </c>
       <c r="L4">
-        <v>1.029534931854516</v>
+        <v>1.02990742831442</v>
       </c>
       <c r="M4">
-        <v>1.033047299275538</v>
+        <v>1.040488934982065</v>
       </c>
       <c r="N4">
-        <v>1.012503593494426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011580193746098</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040616666646667</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033766722868103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>1.009954838512152</v>
+        <v>1.006247254012939</v>
       </c>
       <c r="D5">
-        <v>1.017112779616829</v>
+        <v>1.02308131360659</v>
       </c>
       <c r="E5">
-        <v>1.021155692562526</v>
+        <v>1.020908101469907</v>
       </c>
       <c r="F5">
-        <v>1.024904469183939</v>
+        <v>1.031579123315584</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.044834066754397</v>
-      </c>
       <c r="J5">
-        <v>1.02865879206329</v>
+        <v>1.025041475495506</v>
       </c>
       <c r="K5">
-        <v>1.026789429441393</v>
+        <v>1.032691102793337</v>
       </c>
       <c r="L5">
-        <v>1.030786947801585</v>
+        <v>1.03054212398676</v>
       </c>
       <c r="M5">
-        <v>1.034494025971175</v>
+        <v>1.041095357453495</v>
       </c>
       <c r="N5">
-        <v>1.012920232159836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011803223871658</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041096609136067</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034191089740553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>1.010237538643135</v>
+        <v>1.006435695093856</v>
       </c>
       <c r="D6">
-        <v>1.017367292267316</v>
+        <v>1.023226092540736</v>
       </c>
       <c r="E6">
-        <v>1.021404226199387</v>
+        <v>1.021058612785113</v>
       </c>
       <c r="F6">
-        <v>1.025185727486635</v>
+        <v>1.031724250162938</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.044895502121163</v>
-      </c>
       <c r="J6">
-        <v>1.028859465674516</v>
+        <v>1.025149693575343</v>
       </c>
       <c r="K6">
-        <v>1.027004225823427</v>
+        <v>1.032797707697014</v>
       </c>
       <c r="L6">
-        <v>1.030996054165646</v>
+        <v>1.030654285194157</v>
       </c>
       <c r="M6">
-        <v>1.034735699906748</v>
+        <v>1.041202739203092</v>
       </c>
       <c r="N6">
-        <v>1.012989787307677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011843325841688</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04118159451587</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034275282227347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>1.008285011855043</v>
+        <v>1.005191565746645</v>
       </c>
       <c r="D7">
-        <v>1.015609847621032</v>
+        <v>1.022296579618859</v>
       </c>
       <c r="E7">
-        <v>1.019688186116776</v>
+        <v>1.020072834739382</v>
       </c>
       <c r="F7">
-        <v>1.023243866135841</v>
+        <v>1.030775098016454</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.044470049070413</v>
-      </c>
       <c r="J7">
-        <v>1.027473120540074</v>
+        <v>1.024457354194683</v>
       </c>
       <c r="K7">
-        <v>1.025520517007262</v>
+        <v>1.032130237167763</v>
       </c>
       <c r="L7">
-        <v>1.029551736466932</v>
+        <v>1.02993196506236</v>
       </c>
       <c r="M7">
-        <v>1.033066714095654</v>
+        <v>1.040512876670616</v>
       </c>
       <c r="N7">
-        <v>1.012509187650704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011590760818067</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040635614884596</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033807550380563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.9998997479983394</v>
+        <v>0.9998874393003157</v>
       </c>
       <c r="D8">
-        <v>1.008072928001561</v>
+        <v>1.018340621275132</v>
       </c>
       <c r="E8">
-        <v>1.012331865038112</v>
+        <v>1.015880701395434</v>
       </c>
       <c r="F8">
-        <v>1.014922630925295</v>
+        <v>1.02674237039642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.0426145316729</v>
-      </c>
       <c r="J8">
-        <v>1.021510858752715</v>
+        <v>1.021498907208033</v>
       </c>
       <c r="K8">
-        <v>1.019144645571355</v>
+        <v>1.029277758505814</v>
       </c>
       <c r="L8">
-        <v>1.02334734470061</v>
+        <v>1.026849770867701</v>
       </c>
       <c r="M8">
-        <v>1.025904189578589</v>
+        <v>1.037571885169177</v>
       </c>
       <c r="N8">
-        <v>1.010440313604676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010507861128238</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038308013969865</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031795194214076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.9841826961001866</v>
+        <v>0.9901553502180764</v>
       </c>
       <c r="D9">
-        <v>0.9939915609375621</v>
+        <v>1.011127702995652</v>
       </c>
       <c r="E9">
-        <v>0.9985999866954995</v>
+        <v>1.008236942796484</v>
       </c>
       <c r="F9">
-        <v>0.999399707726889</v>
+        <v>1.019404373704912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.039030939427013</v>
-      </c>
       <c r="J9">
-        <v>1.010306640132085</v>
+        <v>1.01606060307187</v>
       </c>
       <c r="K9">
-        <v>1.007182878923462</v>
+        <v>1.02404278447923</v>
       </c>
       <c r="L9">
-        <v>1.011715819050486</v>
+        <v>1.02119778013142</v>
       </c>
       <c r="M9">
-        <v>1.01250253176796</v>
+        <v>1.032190282284219</v>
       </c>
       <c r="N9">
-        <v>1.006545881052274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008506382955117</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034048810357114</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028090424292557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.9729682338590612</v>
+        <v>0.9834952770288238</v>
       </c>
       <c r="D10">
-        <v>0.9839803271871542</v>
+        <v>1.006260408970323</v>
       </c>
       <c r="E10">
-        <v>0.988845840013156</v>
+        <v>1.003073319651943</v>
       </c>
       <c r="F10">
-        <v>0.988378142797658</v>
+        <v>1.014489069763195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.036406240175871</v>
-      </c>
       <c r="J10">
-        <v>1.002296975231828</v>
+        <v>1.012379384645043</v>
       </c>
       <c r="K10">
-        <v>0.9986449737325822</v>
+        <v>1.020517542356285</v>
       </c>
       <c r="L10">
-        <v>1.003419449636763</v>
+        <v>1.0173873051933</v>
       </c>
       <c r="M10">
-        <v>1.002960452543382</v>
+        <v>1.028601556304704</v>
       </c>
       <c r="N10">
-        <v>1.00375828245033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007153456624582</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031260435766023</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025614812472416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.9679109585272969</v>
+        <v>0.9812787780871063</v>
       </c>
       <c r="D11">
-        <v>0.979475533941043</v>
+        <v>1.004854850970385</v>
       </c>
       <c r="E11">
-        <v>0.9844588821529804</v>
+        <v>1.001601054005607</v>
       </c>
       <c r="F11">
-        <v>0.9834217823157435</v>
+        <v>1.01333778239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.035207533838924</v>
-      </c>
       <c r="J11">
-        <v>0.998682411900921</v>
+        <v>1.011451667446837</v>
       </c>
       <c r="K11">
-        <v>0.9947951766553039</v>
+        <v>1.019685789016119</v>
       </c>
       <c r="L11">
-        <v>0.999679955475043</v>
+        <v>1.016492839823583</v>
       </c>
       <c r="M11">
-        <v>0.9986632611250292</v>
+        <v>1.028012476095097</v>
       </c>
       <c r="N11">
-        <v>1.002499695332281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006869788322297</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031234127932232</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025059996384723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.9659996329160658</v>
+        <v>0.9807286635178303</v>
       </c>
       <c r="D12">
-        <v>0.9777746172299341</v>
+        <v>1.004603631699364</v>
       </c>
       <c r="E12">
-        <v>0.9828027915345471</v>
+        <v>1.001356967135417</v>
       </c>
       <c r="F12">
-        <v>0.9815507849140137</v>
+        <v>1.013284774410745</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.034752328707609</v>
-      </c>
       <c r="J12">
-        <v>0.9973160621068629</v>
+        <v>1.011371622608455</v>
       </c>
       <c r="K12">
-        <v>0.9933403777796549</v>
+        <v>1.019643161686548</v>
       </c>
       <c r="L12">
-        <v>0.9982670495987898</v>
+        <v>1.016458215891222</v>
       </c>
       <c r="M12">
-        <v>0.9970401889388441</v>
+        <v>1.028161809368432</v>
       </c>
       <c r="N12">
-        <v>1.002023862636811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006888614879415</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031681059527235</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025029856720163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.9664111489981962</v>
+        <v>0.9814467074772395</v>
       </c>
       <c r="D13">
-        <v>0.9781407568318687</v>
+        <v>1.005250469435713</v>
       </c>
       <c r="E13">
-        <v>0.9831592666095154</v>
+        <v>1.002062604046729</v>
       </c>
       <c r="F13">
-        <v>0.9819535177031293</v>
+        <v>1.0141012986794</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.034850432633277</v>
-      </c>
       <c r="J13">
-        <v>0.99761025345521</v>
+        <v>1.011961995160223</v>
       </c>
       <c r="K13">
-        <v>0.9936535919599219</v>
+        <v>1.020234066967954</v>
       </c>
       <c r="L13">
-        <v>0.9985712347952331</v>
+        <v>1.01710649273114</v>
       </c>
       <c r="M13">
-        <v>0.9973895964234425</v>
+        <v>1.028920092219061</v>
       </c>
       <c r="N13">
-        <v>1.002126317931747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007151687338458</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032559018504677</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025445131124421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.9677536534252428</v>
+        <v>0.9825253610605409</v>
       </c>
       <c r="D14">
-        <v>0.979335512489877</v>
+        <v>1.00611260772703</v>
       </c>
       <c r="E14">
-        <v>0.9843225439978023</v>
+        <v>1.002987853550637</v>
       </c>
       <c r="F14">
-        <v>0.9832677512900418</v>
+        <v>1.015068115091571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.035170113224981</v>
-      </c>
       <c r="J14">
-        <v>0.9985699641573957</v>
+        <v>1.012680340472633</v>
       </c>
       <c r="K14">
-        <v>0.9946754401604879</v>
+        <v>1.020936981453192</v>
       </c>
       <c r="L14">
-        <v>0.9995636626790723</v>
+        <v>1.017870537654764</v>
       </c>
       <c r="M14">
-        <v>0.998529659008595</v>
+        <v>1.029727959296579</v>
       </c>
       <c r="N14">
-        <v>1.002460536610022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007447201321541</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033371827457527</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025943569964919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.9685763824064189</v>
+        <v>0.9830712270785353</v>
       </c>
       <c r="D15">
-        <v>0.9800679114911295</v>
+        <v>1.006528818050648</v>
       </c>
       <c r="E15">
-        <v>0.9850356907258514</v>
+        <v>1.003429568213614</v>
       </c>
       <c r="F15">
-        <v>0.9840734459798678</v>
+        <v>1.015507653736959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.03536574086267</v>
-      </c>
       <c r="J15">
-        <v>0.9991580718881263</v>
+        <v>1.013010156818775</v>
       </c>
       <c r="K15">
-        <v>0.9953016876487509</v>
+        <v>1.021257402541813</v>
       </c>
       <c r="L15">
-        <v>1.000171907462081</v>
+        <v>1.018215526727039</v>
       </c>
       <c r="M15">
-        <v>0.9992284587825943</v>
+        <v>1.030072589454137</v>
       </c>
       <c r="N15">
-        <v>1.002665336062914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007575763970602</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033681925942554</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026176067890672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.973299413069136</v>
+        <v>0.9857492662943612</v>
       </c>
       <c r="D16">
-        <v>0.9842755414034174</v>
+        <v>1.008465512510855</v>
       </c>
       <c r="E16">
-        <v>0.9891333775910215</v>
+        <v>1.00547822617008</v>
       </c>
       <c r="F16">
-        <v>0.9887030100437868</v>
+        <v>1.017451216001849</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.036484433621053</v>
-      </c>
       <c r="J16">
-        <v>1.002533633528372</v>
+        <v>1.01446128818657</v>
       </c>
       <c r="K16">
-        <v>0.9988970987759239</v>
+        <v>1.022647349666612</v>
       </c>
       <c r="L16">
-        <v>1.003664379867514</v>
+        <v>1.019712879835656</v>
       </c>
       <c r="M16">
-        <v>1.003241987969034</v>
+        <v>1.031476599335267</v>
       </c>
       <c r="N16">
-        <v>1.003840675646029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008099908385316</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034752760325685</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027162033980113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.976206410658006</v>
+        <v>0.9872410469298808</v>
       </c>
       <c r="D17">
-        <v>0.9868679782614606</v>
+        <v>1.009502138428524</v>
       </c>
       <c r="E17">
-        <v>0.9916586465096039</v>
+        <v>1.006567296658141</v>
       </c>
       <c r="F17">
-        <v>0.9915561879472953</v>
+        <v>1.018433830278276</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.037169100289965</v>
-      </c>
       <c r="J17">
-        <v>1.00461067928787</v>
+        <v>1.01519851919268</v>
       </c>
       <c r="K17">
-        <v>1.001110245014025</v>
+        <v>1.023345587041934</v>
       </c>
       <c r="L17">
-        <v>1.005814527851664</v>
+        <v>1.020461148938269</v>
       </c>
       <c r="M17">
-        <v>1.005713905476763</v>
+        <v>1.032126187325231</v>
       </c>
       <c r="N17">
-        <v>1.004563737602528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008347114667211</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035136588048771</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027658341082777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.9778827759837202</v>
+        <v>0.9878330171643843</v>
       </c>
       <c r="D18">
-        <v>0.988363868405409</v>
+        <v>1.009829433568183</v>
       </c>
       <c r="E18">
-        <v>0.9931159815929677</v>
+        <v>1.006902439512757</v>
       </c>
       <c r="F18">
-        <v>0.9932028217601899</v>
+        <v>1.018635363134949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.037562498452023</v>
-      </c>
       <c r="J18">
-        <v>1.005808195241038</v>
+        <v>1.015363691776082</v>
       </c>
       <c r="K18">
-        <v>1.002386525716039</v>
+        <v>1.023480628114291</v>
       </c>
       <c r="L18">
-        <v>1.007054609669955</v>
+        <v>1.020603082106169</v>
       </c>
       <c r="M18">
-        <v>1.007139923981919</v>
+        <v>1.032139996349763</v>
       </c>
       <c r="N18">
-        <v>1.004980558191964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008368600473533</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034908585418272</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027742050198799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.9784511838813942</v>
+        <v>0.9876522833866849</v>
       </c>
       <c r="D19">
-        <v>0.9888712351040181</v>
+        <v>1.009559179910671</v>
       </c>
       <c r="E19">
-        <v>0.9936103054424111</v>
+        <v>1.006592680028324</v>
       </c>
       <c r="F19">
-        <v>0.9937613671140446</v>
+        <v>1.018162340328282</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.03769564414541</v>
-      </c>
       <c r="J19">
-        <v>1.006214194509589</v>
+        <v>1.015052619356601</v>
       </c>
       <c r="K19">
-        <v>1.002819279248202</v>
+        <v>1.023151255065754</v>
       </c>
       <c r="L19">
-        <v>1.00747511129889</v>
+        <v>1.020234639201839</v>
       </c>
       <c r="M19">
-        <v>1.007623536591156</v>
+        <v>1.031611860318448</v>
       </c>
       <c r="N19">
-        <v>1.005121864142904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008208524538689</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034163508515693</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027515638908965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.9758965248228394</v>
+        <v>0.9852718909238434</v>
       </c>
       <c r="D20">
-        <v>0.9865915280600195</v>
+        <v>1.007578535910436</v>
       </c>
       <c r="E20">
-        <v>0.9913893378330958</v>
+        <v>1.004456723988473</v>
       </c>
       <c r="F20">
-        <v>0.9912519031175964</v>
+        <v>1.015807515340609</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.037096262306261</v>
-      </c>
       <c r="J20">
-        <v>1.004389291019419</v>
+        <v>1.013382604666096</v>
       </c>
       <c r="K20">
-        <v>1.000874319278256</v>
+        <v>1.021489422142825</v>
       </c>
       <c r="L20">
-        <v>1.005585304230323</v>
+        <v>1.018421657360142</v>
       </c>
       <c r="M20">
-        <v>1.005450341442489</v>
+        <v>1.029577989182799</v>
       </c>
       <c r="N20">
-        <v>1.004486673833187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007527059434855</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03202254487822</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026344610602128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.9673592477741373</v>
+        <v>0.9801341448889985</v>
       </c>
       <c r="D21">
-        <v>0.9789844678136178</v>
+        <v>1.00379696442509</v>
       </c>
       <c r="E21">
-        <v>0.9839807390410368</v>
+        <v>1.000441656938188</v>
       </c>
       <c r="F21">
-        <v>0.9828815901733722</v>
+        <v>1.01193986435803</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.035076255218904</v>
-      </c>
       <c r="J21">
-        <v>0.9982880237258214</v>
+        <v>1.010486588034398</v>
       </c>
       <c r="K21">
-        <v>0.9943752322227998</v>
+        <v>1.018706757449001</v>
       </c>
       <c r="L21">
-        <v>0.9992720923095885</v>
+        <v>1.015414666821996</v>
       </c>
       <c r="M21">
-        <v>0.9981946993364552</v>
+        <v>1.026698508900622</v>
       </c>
       <c r="N21">
-        <v>1.002362352803835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006450654807251</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029702387084908</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024380397197691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.9618000825388785</v>
+        <v>0.9768627054611935</v>
       </c>
       <c r="D22">
-        <v>0.9740404832966069</v>
+        <v>1.001402333445201</v>
       </c>
       <c r="E22">
-        <v>0.9791676952120597</v>
+        <v>0.9979053888749769</v>
       </c>
       <c r="F22">
-        <v>0.9774439947955333</v>
+        <v>1.009514692494624</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.033748262517789</v>
-      </c>
       <c r="J22">
-        <v>0.9943135402296455</v>
+        <v>1.008653112229142</v>
       </c>
       <c r="K22">
-        <v>0.9901443611413205</v>
+        <v>1.016946060930536</v>
       </c>
       <c r="L22">
-        <v>0.9951634570784669</v>
+        <v>1.013518454936164</v>
       </c>
       <c r="M22">
-        <v>0.993475936379261</v>
+        <v>1.024899988903064</v>
       </c>
       <c r="N22">
-        <v>1.000978124605824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005769568516288</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028278955879323</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023121780606314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.9647661897779952</v>
+        <v>0.9785848414599091</v>
       </c>
       <c r="D23">
-        <v>0.9766774272123161</v>
+        <v>1.002654128500118</v>
       </c>
       <c r="E23">
-        <v>0.9817346124744499</v>
+        <v>0.9992368393645488</v>
       </c>
       <c r="F23">
-        <v>0.9803439969118729</v>
+        <v>1.010787513950115</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.034457969741566</v>
-      </c>
       <c r="J23">
-        <v>0.9964342459537593</v>
+        <v>1.009610904918167</v>
       </c>
       <c r="K23">
-        <v>0.9924016113103322</v>
+        <v>1.017861592209546</v>
       </c>
       <c r="L23">
-        <v>0.9973553758363956</v>
+        <v>1.01451026736638</v>
       </c>
       <c r="M23">
-        <v>0.9959930585089647</v>
+        <v>1.025840321435583</v>
       </c>
       <c r="N23">
-        <v>1.001716751956686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006123854387438</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029023178534647</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.023759340178626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.9760366081504095</v>
+        <v>0.9852604261991121</v>
       </c>
       <c r="D24">
-        <v>0.9867164940190126</v>
+        <v>1.007538967660648</v>
       </c>
       <c r="E24">
-        <v>0.9915110749253448</v>
+        <v>1.004421108411908</v>
       </c>
       <c r="F24">
-        <v>0.9913894504775059</v>
+        <v>1.015748322637677</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.037129193017507</v>
-      </c>
       <c r="J24">
-        <v>1.004489369950663</v>
+        <v>1.013337912445471</v>
       </c>
       <c r="K24">
-        <v>1.000980968975243</v>
+        <v>1.021434971542722</v>
       </c>
       <c r="L24">
-        <v>1.005688923844767</v>
+        <v>1.018371026733356</v>
       </c>
       <c r="M24">
-        <v>1.005569483387622</v>
+        <v>1.02950441136795</v>
       </c>
       <c r="N24">
-        <v>1.004521510822137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007503312386203</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031923101140493</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026278350546763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.9883674935231473</v>
+        <v>0.992745572997156</v>
       </c>
       <c r="D25">
-        <v>0.9977350678571627</v>
+        <v>1.013053564298528</v>
       </c>
       <c r="E25">
-        <v>1.00224914168463</v>
+        <v>1.01026924192008</v>
       </c>
       <c r="F25">
-        <v>1.003523840619504</v>
+        <v>1.021353877435417</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.039996966603914</v>
-      </c>
       <c r="J25">
-        <v>1.01329278134018</v>
+        <v>1.017519568492137</v>
       </c>
       <c r="K25">
-        <v>1.010368646027129</v>
+        <v>1.025452564571816</v>
       </c>
       <c r="L25">
-        <v>1.014812642673668</v>
+        <v>1.022710205653169</v>
       </c>
       <c r="M25">
-        <v>1.016067698690067</v>
+        <v>1.033629505128267</v>
       </c>
       <c r="N25">
-        <v>1.007584498612598</v>
+        <v>1.009046745451688</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035187868136558</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029116160280391</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,1133 +424,1355 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.998475040900502</v>
+        <v>0.9992039820257198</v>
       </c>
       <c r="D2">
-        <v>1.017280083862871</v>
+        <v>1.017703338718118</v>
       </c>
       <c r="E2">
-        <v>1.0147644329708</v>
+        <v>1.015396161240516</v>
       </c>
       <c r="F2">
-        <v>1.025669206945394</v>
+        <v>1.026141055918062</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="J2">
-        <v>1.020701459097656</v>
+        <v>1.021408527949385</v>
       </c>
       <c r="K2">
-        <v>1.028503816528616</v>
+        <v>1.028921426658006</v>
       </c>
       <c r="L2">
-        <v>1.026021837634958</v>
+        <v>1.026645090508277</v>
       </c>
       <c r="M2">
-        <v>1.036782147092192</v>
+        <v>1.037247831915346</v>
       </c>
       <c r="N2">
-        <v>1.010213419362273</v>
+        <v>1.012476767399356</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037682987050615</v>
+        <v>1.038051546717545</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031224816447054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031528967168238</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01943016289392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002560492713944</v>
+        <v>1.003026508803611</v>
       </c>
       <c r="D3">
-        <v>1.020321860304007</v>
+        <v>1.020425226546633</v>
       </c>
       <c r="E3">
-        <v>1.017987956808673</v>
+        <v>1.018382110477906</v>
       </c>
       <c r="F3">
-        <v>1.028768308318101</v>
+        <v>1.029002527363959</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="J3">
-        <v>1.022981598661046</v>
+        <v>1.023435006793287</v>
       </c>
       <c r="K3">
-        <v>1.030701157936587</v>
+        <v>1.030803266429822</v>
       </c>
       <c r="L3">
-        <v>1.028395737670457</v>
+        <v>1.028785069650947</v>
       </c>
       <c r="M3">
-        <v>1.039045864047586</v>
+        <v>1.039277291311133</v>
       </c>
       <c r="N3">
-        <v>1.011049437485393</v>
+        <v>1.013064203609651</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039474572036259</v>
+        <v>1.03965773143631</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032775870512084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032856646752524</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019874061890085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005159612783963</v>
+        <v>1.005460907458026</v>
       </c>
       <c r="D4">
-        <v>1.022264229391817</v>
+        <v>1.022165524842007</v>
       </c>
       <c r="E4">
-        <v>1.020045056602728</v>
+        <v>1.020290110015077</v>
       </c>
       <c r="F4">
-        <v>1.030747970864558</v>
+        <v>1.030832638243112</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="J4">
-        <v>1.024432249706703</v>
+        <v>1.024725946753741</v>
       </c>
       <c r="K4">
-        <v>1.032101170355304</v>
+        <v>1.03200359402093</v>
       </c>
       <c r="L4">
-        <v>1.02990742831442</v>
+        <v>1.030149666814187</v>
       </c>
       <c r="M4">
-        <v>1.040488934982065</v>
+        <v>1.040572654318332</v>
       </c>
       <c r="N4">
-        <v>1.011580193746098</v>
+        <v>1.013437758433515</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040616666646667</v>
+        <v>1.040682924874337</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033766722868103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033706379721382</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020154466127002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.006247254012939</v>
+        <v>1.006480031536943</v>
       </c>
       <c r="D5">
-        <v>1.02308131360659</v>
+        <v>1.022898273121159</v>
       </c>
       <c r="E5">
-        <v>1.020908101469907</v>
+        <v>1.021091079766431</v>
       </c>
       <c r="F5">
-        <v>1.031579123315584</v>
+        <v>1.031601458017803</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="J5">
-        <v>1.025041475495506</v>
+        <v>1.02526855929648</v>
       </c>
       <c r="K5">
-        <v>1.032691102793337</v>
+        <v>1.032510098493583</v>
       </c>
       <c r="L5">
-        <v>1.03054212398676</v>
+        <v>1.030723057010946</v>
       </c>
       <c r="M5">
-        <v>1.041095357453495</v>
+        <v>1.041117448758831</v>
       </c>
       <c r="N5">
-        <v>1.011803223871658</v>
+        <v>1.013594920873786</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041096609136067</v>
+        <v>1.041114092908394</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034191089740553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034072462932919</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020272788171243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006435695093856</v>
+        <v>1.006656422082908</v>
       </c>
       <c r="D6">
-        <v>1.023226092540736</v>
+        <v>1.023028326130586</v>
       </c>
       <c r="E6">
-        <v>1.021058612785113</v>
+        <v>1.021230669641594</v>
       </c>
       <c r="F6">
-        <v>1.031724250162938</v>
+        <v>1.031735650615036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="J6">
-        <v>1.025149693575343</v>
+        <v>1.025365049517725</v>
       </c>
       <c r="K6">
-        <v>1.032797707697014</v>
+        <v>1.032602131135659</v>
       </c>
       <c r="L6">
-        <v>1.030654285194157</v>
+        <v>1.030824427770116</v>
       </c>
       <c r="M6">
-        <v>1.041202739203092</v>
+        <v>1.041214015988772</v>
       </c>
       <c r="N6">
-        <v>1.011843325841688</v>
+        <v>1.013623241174206</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04118159451587</v>
+        <v>1.041190519327166</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034275282227347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034147218499001</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020295056187789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.005191565746645</v>
+        <v>1.005498569673346</v>
       </c>
       <c r="D7">
-        <v>1.022296579618859</v>
+        <v>1.022201666173457</v>
       </c>
       <c r="E7">
-        <v>1.020072834739382</v>
+        <v>1.020322780206288</v>
       </c>
       <c r="F7">
-        <v>1.030775098016454</v>
+        <v>1.030863592886286</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="J7">
-        <v>1.024457354194683</v>
+        <v>1.024756620080126</v>
       </c>
       <c r="K7">
-        <v>1.032130237167763</v>
+        <v>1.032036408152463</v>
       </c>
       <c r="L7">
-        <v>1.02993196506236</v>
+        <v>1.030179040591778</v>
       </c>
       <c r="M7">
-        <v>1.040512876670616</v>
+        <v>1.040600381039797</v>
       </c>
       <c r="N7">
-        <v>1.011590760818067</v>
+        <v>1.013473837308199</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040635614884596</v>
+        <v>1.040704868709454</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033807550380563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033751851703325</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020165123609199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998874393003157</v>
+        <v>1.000549803709964</v>
       </c>
       <c r="D8">
-        <v>1.018340621275132</v>
+        <v>1.01867302292312</v>
       </c>
       <c r="E8">
-        <v>1.015880701395434</v>
+        <v>1.016451613242917</v>
       </c>
       <c r="F8">
-        <v>1.02674237039642</v>
+        <v>1.027149994350202</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="J8">
-        <v>1.021498907208033</v>
+        <v>1.022142069343537</v>
       </c>
       <c r="K8">
-        <v>1.029277758505814</v>
+        <v>1.029605860045167</v>
       </c>
       <c r="L8">
-        <v>1.026849770867701</v>
+        <v>1.027413254459571</v>
       </c>
       <c r="M8">
-        <v>1.037571885169177</v>
+        <v>1.037974343559602</v>
       </c>
       <c r="N8">
-        <v>1.010507861128238</v>
+        <v>1.012770552577062</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038308013969865</v>
+        <v>1.038626533703435</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031795194214076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032038309786764</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019597520166585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9901553502180764</v>
+        <v>0.9914644851305704</v>
       </c>
       <c r="D9">
-        <v>1.011127702995652</v>
+        <v>1.012234748670399</v>
       </c>
       <c r="E9">
-        <v>1.008236942796484</v>
+        <v>1.00939039012438</v>
       </c>
       <c r="F9">
-        <v>1.019404373704912</v>
+        <v>1.020391541031696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="J9">
-        <v>1.01606060307187</v>
+        <v>1.017322297198764</v>
       </c>
       <c r="K9">
-        <v>1.02404278447923</v>
+        <v>1.02513239604921</v>
       </c>
       <c r="L9">
-        <v>1.02119778013142</v>
+        <v>1.022332930093496</v>
       </c>
       <c r="M9">
-        <v>1.032190282284219</v>
+        <v>1.033162221591517</v>
       </c>
       <c r="N9">
-        <v>1.008506382955117</v>
+        <v>1.011378643799513</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034048810357114</v>
+        <v>1.034818041698752</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028090424292557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028871736038628</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018525232977748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9834952770288238</v>
+        <v>0.9852935149140603</v>
       </c>
       <c r="D10">
-        <v>1.006260408970323</v>
+        <v>1.007929848995952</v>
       </c>
       <c r="E10">
-        <v>1.003073319651943</v>
+        <v>1.004663914527822</v>
       </c>
       <c r="F10">
-        <v>1.014489069763195</v>
+        <v>1.015904510208275</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="J10">
-        <v>1.012379384645043</v>
+        <v>1.014103019602545</v>
       </c>
       <c r="K10">
-        <v>1.020517542356285</v>
+        <v>1.022157388570676</v>
       </c>
       <c r="L10">
-        <v>1.0173873051933</v>
+        <v>1.018949468074232</v>
       </c>
       <c r="M10">
-        <v>1.028601556304704</v>
+        <v>1.029992421186717</v>
       </c>
       <c r="N10">
-        <v>1.007153456624582</v>
+        <v>1.010563678563658</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031260435766023</v>
+        <v>1.032361155801699</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025614812472416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026786870250311</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017810635874554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9812787780871063</v>
+        <v>0.9832413742432381</v>
       </c>
       <c r="D11">
-        <v>1.004854850970385</v>
+        <v>1.006701762196328</v>
       </c>
       <c r="E11">
-        <v>1.001601054005607</v>
+        <v>1.00333284962507</v>
       </c>
       <c r="F11">
-        <v>1.01333778239</v>
+        <v>1.014889742275168</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="J11">
-        <v>1.011451667446837</v>
+        <v>1.013328341439984</v>
       </c>
       <c r="K11">
-        <v>1.019685789016119</v>
+        <v>1.021498390185201</v>
       </c>
       <c r="L11">
-        <v>1.016492839823583</v>
+        <v>1.018192185799125</v>
       </c>
       <c r="M11">
-        <v>1.028012476095097</v>
+        <v>1.029536218596458</v>
       </c>
       <c r="N11">
-        <v>1.006869788322297</v>
+        <v>1.010611900834444</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031234127932232</v>
+        <v>1.032439390583988</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025059996384723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026357393009382</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017721843625312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9807286635178303</v>
+        <v>0.9827103120968809</v>
       </c>
       <c r="D12">
-        <v>1.004603631699364</v>
+        <v>1.006471924357416</v>
       </c>
       <c r="E12">
-        <v>1.001356967135417</v>
+        <v>1.003101396413068</v>
       </c>
       <c r="F12">
-        <v>1.013284774410745</v>
+        <v>1.01485100673061</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="J12">
-        <v>1.011371622608455</v>
+        <v>1.013264865493328</v>
       </c>
       <c r="K12">
-        <v>1.019643161686548</v>
+        <v>1.021476174084206</v>
       </c>
       <c r="L12">
-        <v>1.016458215891222</v>
+        <v>1.018169418798452</v>
       </c>
       <c r="M12">
-        <v>1.028161809368432</v>
+        <v>1.029699110465336</v>
       </c>
       <c r="N12">
-        <v>1.006888614879415</v>
+        <v>1.010730489464387</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031681059527235</v>
+        <v>1.032896629576764</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025029856720163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026341685498905</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01776940138187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9814467074772395</v>
+        <v>0.9833225125998878</v>
       </c>
       <c r="D13">
-        <v>1.005250469435713</v>
+        <v>1.007009290102658</v>
       </c>
       <c r="E13">
-        <v>1.002062604046729</v>
+        <v>1.003709033557961</v>
       </c>
       <c r="F13">
-        <v>1.0141012986794</v>
+        <v>1.015577926947275</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="J13">
-        <v>1.011961995160223</v>
+        <v>1.013754585644257</v>
       </c>
       <c r="K13">
-        <v>1.020234066967954</v>
+        <v>1.021959836931363</v>
       </c>
       <c r="L13">
-        <v>1.01710649273114</v>
+        <v>1.01872172130903</v>
       </c>
       <c r="M13">
-        <v>1.028920092219061</v>
+        <v>1.03036958955195</v>
       </c>
       <c r="N13">
-        <v>1.007151687338458</v>
+        <v>1.010880771323866</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032559018504677</v>
+        <v>1.033704869393792</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025445131124421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026680885353015</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017931412181875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9825253610605409</v>
+        <v>0.9842715970361889</v>
       </c>
       <c r="D14">
-        <v>1.00611260772703</v>
+        <v>1.007736438600709</v>
       </c>
       <c r="E14">
-        <v>1.002987853550637</v>
+        <v>1.00451668590224</v>
       </c>
       <c r="F14">
-        <v>1.015068115091571</v>
+        <v>1.016435879892767</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="J14">
-        <v>1.012680340472633</v>
+        <v>1.014350269808946</v>
       </c>
       <c r="K14">
-        <v>1.020936981453192</v>
+        <v>1.022530696519869</v>
       </c>
       <c r="L14">
-        <v>1.017870537654764</v>
+        <v>1.019370781638121</v>
       </c>
       <c r="M14">
-        <v>1.029727959296579</v>
+        <v>1.031070927565561</v>
       </c>
       <c r="N14">
-        <v>1.007447201321541</v>
+        <v>1.011002354516022</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033371827457527</v>
+        <v>1.034433321048533</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025943569964919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027086082320546</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018097877989519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9830712270785353</v>
+        <v>0.9847591352507374</v>
       </c>
       <c r="D15">
-        <v>1.006528818050648</v>
+        <v>1.008091267613385</v>
       </c>
       <c r="E15">
-        <v>1.003429568213614</v>
+        <v>1.004906085085422</v>
       </c>
       <c r="F15">
-        <v>1.015507653736959</v>
+        <v>1.016826457404486</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="J15">
-        <v>1.013010156818775</v>
+        <v>1.014624970481556</v>
       </c>
       <c r="K15">
-        <v>1.021257402541813</v>
+        <v>1.022791101907831</v>
       </c>
       <c r="L15">
-        <v>1.018215526727039</v>
+        <v>1.019664652430959</v>
       </c>
       <c r="M15">
-        <v>1.030072589454137</v>
+        <v>1.031367672797127</v>
       </c>
       <c r="N15">
-        <v>1.007575763970602</v>
+        <v>1.011044530824563</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033681925942554</v>
+        <v>1.034705543839774</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026176067890672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027276708361911</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018166991700066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9857492662943612</v>
+        <v>0.9871948260861512</v>
       </c>
       <c r="D16">
-        <v>1.008465512510855</v>
+        <v>1.009766279425166</v>
       </c>
       <c r="E16">
-        <v>1.00547822617008</v>
+        <v>1.006740337983556</v>
       </c>
       <c r="F16">
-        <v>1.017451216001849</v>
+        <v>1.018565394731442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="J16">
-        <v>1.01446128818657</v>
+        <v>1.015847426552732</v>
       </c>
       <c r="K16">
-        <v>1.022647349666612</v>
+        <v>1.023925245021626</v>
       </c>
       <c r="L16">
-        <v>1.019712879835656</v>
+        <v>1.020952627370991</v>
       </c>
       <c r="M16">
-        <v>1.031476599335267</v>
+        <v>1.032571627273073</v>
       </c>
       <c r="N16">
-        <v>1.008099908385316</v>
+        <v>1.011182448486363</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034752760325685</v>
+        <v>1.035618281946456</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027162033980113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028082097385082</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018428145547934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9872410469298808</v>
+        <v>0.9885779264265778</v>
       </c>
       <c r="D17">
-        <v>1.009502138428524</v>
+        <v>1.010680268231509</v>
       </c>
       <c r="E17">
-        <v>1.006567296658141</v>
+        <v>1.0077345407154</v>
       </c>
       <c r="F17">
-        <v>1.018433830278276</v>
+        <v>1.019454795343125</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="J17">
-        <v>1.01519851919268</v>
+        <v>1.016482226519619</v>
       </c>
       <c r="K17">
-        <v>1.023345587041934</v>
+        <v>1.024503589718768</v>
       </c>
       <c r="L17">
-        <v>1.020461148938269</v>
+        <v>1.021608301014249</v>
       </c>
       <c r="M17">
-        <v>1.032126187325231</v>
+        <v>1.033130098626139</v>
       </c>
       <c r="N17">
-        <v>1.008347114667211</v>
+        <v>1.011254599239489</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035136588048771</v>
+        <v>1.035930169825202</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027658341082777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028493876748942</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018543235534423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9878330171643843</v>
+        <v>0.9891557537145768</v>
       </c>
       <c r="D18">
-        <v>1.009829433568183</v>
+        <v>1.010986094607238</v>
       </c>
       <c r="E18">
-        <v>1.006902439512757</v>
+        <v>1.008059904399719</v>
       </c>
       <c r="F18">
-        <v>1.018635363134949</v>
+        <v>1.019643270989258</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="J18">
-        <v>1.015363691776082</v>
+        <v>1.016634797640136</v>
       </c>
       <c r="K18">
-        <v>1.023480628114291</v>
+        <v>1.024617850511342</v>
       </c>
       <c r="L18">
-        <v>1.020603082106169</v>
+        <v>1.021740948725517</v>
       </c>
       <c r="M18">
-        <v>1.032139996349763</v>
+        <v>1.033131336738908</v>
       </c>
       <c r="N18">
-        <v>1.008368600473533</v>
+        <v>1.011230032490654</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034908585418272</v>
+        <v>1.035692394913938</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027742050198799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.02856176533263</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018530446667453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9876522833866849</v>
+        <v>0.9890327073867251</v>
       </c>
       <c r="D19">
-        <v>1.009559179910671</v>
+        <v>1.010774219048469</v>
       </c>
       <c r="E19">
-        <v>1.006592680028324</v>
+        <v>1.007805076643361</v>
       </c>
       <c r="F19">
-        <v>1.018162340328282</v>
+        <v>1.019219270253718</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="J19">
-        <v>1.015052619356601</v>
+        <v>1.016379453810242</v>
       </c>
       <c r="K19">
-        <v>1.023151255065754</v>
+        <v>1.024345971280394</v>
       </c>
       <c r="L19">
-        <v>1.020234639201839</v>
+        <v>1.021426602657314</v>
       </c>
       <c r="M19">
-        <v>1.031611860318448</v>
+        <v>1.032651490174906</v>
       </c>
       <c r="N19">
-        <v>1.008208524538689</v>
+        <v>1.011112442595504</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034163508515693</v>
+        <v>1.03498577009481</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027515638908965</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028376628436945</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018416731043085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9852718909238434</v>
+        <v>0.9869125237849409</v>
       </c>
       <c r="D20">
-        <v>1.007578535910436</v>
+        <v>1.009076443033621</v>
       </c>
       <c r="E20">
-        <v>1.004456723988473</v>
+        <v>1.00590676734378</v>
       </c>
       <c r="F20">
-        <v>1.015807515340609</v>
+        <v>1.017088642577061</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="J20">
-        <v>1.013382604666096</v>
+        <v>1.014957437475865</v>
       </c>
       <c r="K20">
-        <v>1.021489422142825</v>
+        <v>1.022961549851342</v>
       </c>
       <c r="L20">
-        <v>1.018421657360142</v>
+        <v>1.019846542499323</v>
       </c>
       <c r="M20">
-        <v>1.029577989182799</v>
+        <v>1.030837519944682</v>
       </c>
       <c r="N20">
-        <v>1.007527059434855</v>
+        <v>1.010715032565964</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03202254487822</v>
+        <v>1.033019340057234</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026344610602128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027402142501584</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018008685319261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9801341448889985</v>
+        <v>0.9822845694002522</v>
       </c>
       <c r="D21">
-        <v>1.00379696442509</v>
+        <v>1.005836551545392</v>
       </c>
       <c r="E21">
-        <v>1.000441656938188</v>
+        <v>1.002346733686829</v>
       </c>
       <c r="F21">
-        <v>1.01193986435803</v>
+        <v>1.013650405604096</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="J21">
-        <v>1.010486588034398</v>
+        <v>1.012542103178739</v>
       </c>
       <c r="K21">
-        <v>1.018706757449001</v>
+        <v>1.020708185971539</v>
       </c>
       <c r="L21">
-        <v>1.015414666821996</v>
+        <v>1.017283782456404</v>
       </c>
       <c r="M21">
-        <v>1.026698508900622</v>
+        <v>1.028377700926174</v>
       </c>
       <c r="N21">
-        <v>1.006450654807251</v>
+        <v>1.010432020850049</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029702387084908</v>
+        <v>1.03103137402084</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024380397197691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025812514327591</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017463641860413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9768627054611935</v>
+        <v>0.9793386096955495</v>
       </c>
       <c r="D22">
-        <v>1.001402333445201</v>
+        <v>1.003786465941308</v>
       </c>
       <c r="E22">
-        <v>0.9979053888749769</v>
+        <v>1.000100984152674</v>
       </c>
       <c r="F22">
-        <v>1.009514692494624</v>
+        <v>1.01149898232749</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="J22">
-        <v>1.008653112229142</v>
+        <v>1.011013221801658</v>
       </c>
       <c r="K22">
-        <v>1.016946060930536</v>
+        <v>1.0192832835544</v>
       </c>
       <c r="L22">
-        <v>1.013518454936164</v>
+        <v>1.015670440792704</v>
       </c>
       <c r="M22">
-        <v>1.024899988903064</v>
+        <v>1.026846032862593</v>
       </c>
       <c r="N22">
-        <v>1.005769568516288</v>
+        <v>1.010248056695611</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028278955879323</v>
+        <v>1.029819144183819</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023121780606314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024790048974718</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017118587096188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9785848414599091</v>
+        <v>0.9808756672735661</v>
       </c>
       <c r="D23">
-        <v>1.002654128500118</v>
+        <v>1.004845657942208</v>
       </c>
       <c r="E23">
-        <v>0.9992368393645488</v>
+        <v>1.001267203239648</v>
       </c>
       <c r="F23">
-        <v>1.010787513950115</v>
+        <v>1.012617447629219</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="J23">
-        <v>1.009610904918167</v>
+        <v>1.011797805764945</v>
       </c>
       <c r="K23">
-        <v>1.017861592209546</v>
+        <v>1.020011127300983</v>
       </c>
       <c r="L23">
-        <v>1.01451026736638</v>
+        <v>1.016501367800058</v>
       </c>
       <c r="M23">
-        <v>1.025840321435583</v>
+        <v>1.027635905901514</v>
       </c>
       <c r="N23">
-        <v>1.006123854387438</v>
+        <v>1.010296270393808</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029023178534647</v>
+        <v>1.03044428489976</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023759340178626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025293963598184</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017290985535063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9852604261991121</v>
+        <v>0.9869077524501988</v>
       </c>
       <c r="D24">
-        <v>1.007538967660648</v>
+        <v>1.009043504926827</v>
       </c>
       <c r="E24">
-        <v>1.004421108411908</v>
+        <v>1.005877593686346</v>
       </c>
       <c r="F24">
-        <v>1.015748322637677</v>
+        <v>1.01703521027671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="J24">
-        <v>1.013337912445471</v>
+        <v>1.01491926181324</v>
       </c>
       <c r="K24">
-        <v>1.021434971542722</v>
+        <v>1.022913646190006</v>
       </c>
       <c r="L24">
-        <v>1.018371026733356</v>
+        <v>1.019802272454223</v>
       </c>
       <c r="M24">
-        <v>1.02950441136795</v>
+        <v>1.030769630168611</v>
       </c>
       <c r="N24">
-        <v>1.007503312386203</v>
+        <v>1.010694672738491</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031923101140493</v>
+        <v>1.03292444837786</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026278350546763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027337860594985</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017987921429327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.992745572997156</v>
+        <v>0.9938683597080744</v>
       </c>
       <c r="D25">
-        <v>1.013053564298528</v>
+        <v>1.013943786692674</v>
       </c>
       <c r="E25">
-        <v>1.01026924192008</v>
+        <v>1.011255387144326</v>
       </c>
       <c r="F25">
-        <v>1.021353877435417</v>
+        <v>1.022176580760312</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="J25">
-        <v>1.017519568492137</v>
+        <v>1.018603854827267</v>
       </c>
       <c r="K25">
-        <v>1.025452564571816</v>
+        <v>1.02632943200072</v>
       </c>
       <c r="L25">
-        <v>1.022710205653169</v>
+        <v>1.023681454694243</v>
       </c>
       <c r="M25">
-        <v>1.033629505128267</v>
+        <v>1.034440118681159</v>
       </c>
       <c r="N25">
-        <v>1.009046745451688</v>
+        <v>1.011720312528121</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035187868136558</v>
+        <v>1.035829418896966</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029116160280391</v>
+        <v>1.029749825608654</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018817239733163</v>
       </c>
     </row>
   </sheetData>
